--- a/Server/BL4R3-rev01-Diagnostic_NodeID_List-scenario.xlsx
+++ b/Server/BL4R3-rev01-Diagnostic_NodeID_List-scenario.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dbsw-my.sharepoint.com/personal/peeranut_noonurak_deutschebahn_com/Documents/2-Master Thesis/Implementation/7-BL4R3-Rev01-Innotrans-EULYNX_SDI_BL4R3_with_example_v431_OPCUA_BaseModelv10406_UaModeler164/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PeeranutNoonurak\Dropbox\DB\DBInfraGO_Masterthesis\Master Thesis\Implementation\EULYNX_SDI_OPC_UA_BL4R3\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="991" documentId="13_ncr:1_{A854BECA-5D17-4579-9780-FBAE363FBE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E55991E-1717-4942-90FC-ED160F0F9CBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0BD9D-A6F9-4FF7-98F2-97C8482D7C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15165" yWindow="-16380" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{2959FBF8-9964-446C-8210-72791AE607FE}"/>
+    <workbookView xWindow="-15960" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2959FBF8-9964-446C-8210-72791AE607FE}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="12" r:id="rId1"/>
@@ -2125,11 +2125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241B3BD8-F515-4CBF-8C03-917A1F325C81}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K859"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H840" sqref="H840"/>
     </sheetView>
   </sheetViews>
@@ -2180,7 +2179,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>187</v>
       </c>
@@ -2208,7 +2207,7 @@
       </c>
       <c r="J2" s="73"/>
     </row>
-    <row r="3" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>187</v>
       </c>
@@ -2240,7 +2239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>187</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>187</v>
       </c>
@@ -2304,7 +2303,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>187</v>
       </c>
@@ -2336,7 +2335,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>187</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>187</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>187</v>
       </c>
@@ -2432,7 +2431,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>187</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>187</v>
       </c>
@@ -2492,7 +2491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>187</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>187</v>
       </c>
@@ -2552,7 +2551,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>187</v>
       </c>
@@ -2584,7 +2583,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>187</v>
       </c>
@@ -2614,7 +2613,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>187</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>187</v>
       </c>
@@ -2674,7 +2673,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>187</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>187</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>187</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>187</v>
       </c>
@@ -2798,7 +2797,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>187</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>32.343000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>187</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>74.655000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>187</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>187</v>
       </c>
@@ -2918,7 +2917,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>187</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>187</v>
       </c>
@@ -2976,7 +2975,7 @@
       </c>
       <c r="J27" s="73"/>
     </row>
-    <row r="28" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>187</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="s">
         <v>187</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="s">
         <v>187</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>187</v>
       </c>
@@ -3100,7 +3099,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>187</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="s">
         <v>187</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>187</v>
       </c>
@@ -3192,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>187</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="32" t="s">
         <v>200</v>
       </c>
@@ -3251,7 +3250,7 @@
       <c r="J36" s="73"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="32" t="s">
         <v>200</v>
       </c>
@@ -3284,7 +3283,7 @@
       </c>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="32" t="s">
         <v>200</v>
       </c>
@@ -3317,7 +3316,7 @@
       </c>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32" t="s">
         <v>200</v>
       </c>
@@ -3350,7 +3349,7 @@
       </c>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
         <v>200</v>
       </c>
@@ -3383,7 +3382,7 @@
       </c>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="32" t="s">
         <v>200</v>
       </c>
@@ -3416,7 +3415,7 @@
       </c>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="32" t="s">
         <v>200</v>
       </c>
@@ -3449,7 +3448,7 @@
       </c>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="32" t="s">
         <v>200</v>
       </c>
@@ -3482,7 +3481,7 @@
       </c>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="32" t="s">
         <v>200</v>
       </c>
@@ -3513,7 +3512,7 @@
       </c>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="32" t="s">
         <v>200</v>
       </c>
@@ -3544,7 +3543,7 @@
       </c>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
         <v>200</v>
       </c>
@@ -3575,7 +3574,7 @@
       </c>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
         <v>200</v>
       </c>
@@ -3606,7 +3605,7 @@
       </c>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="32" t="s">
         <v>200</v>
       </c>
@@ -3639,7 +3638,7 @@
       </c>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="32" t="s">
         <v>200</v>
       </c>
@@ -3670,7 +3669,7 @@
       </c>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="32" t="s">
         <v>200</v>
       </c>
@@ -3701,7 +3700,7 @@
       </c>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="32" t="s">
         <v>200</v>
       </c>
@@ -3732,7 +3731,7 @@
       </c>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
         <v>200</v>
       </c>
@@ -3765,7 +3764,7 @@
       </c>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="32" t="s">
         <v>200</v>
       </c>
@@ -3796,7 +3795,7 @@
       </c>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="32" t="s">
         <v>200</v>
       </c>
@@ -3829,7 +3828,7 @@
       </c>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="32" t="s">
         <v>200</v>
       </c>
@@ -3860,7 +3859,7 @@
       </c>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="32" t="s">
         <v>200</v>
       </c>
@@ -3891,7 +3890,7 @@
       </c>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="32" t="s">
         <v>200</v>
       </c>
@@ -3922,7 +3921,7 @@
       </c>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="32" t="s">
         <v>200</v>
       </c>
@@ -3953,7 +3952,7 @@
       </c>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="32" t="s">
         <v>200</v>
       </c>
@@ -3984,7 +3983,7 @@
       </c>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="32" t="s">
         <v>200</v>
       </c>
@@ -4015,7 +4014,7 @@
       </c>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="32" t="s">
         <v>200</v>
       </c>
@@ -4044,7 +4043,7 @@
       <c r="J61" s="73"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="32" t="s">
         <v>200</v>
       </c>
@@ -4077,7 +4076,7 @@
       </c>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="32" t="s">
         <v>200</v>
       </c>
@@ -4110,7 +4109,7 @@
       </c>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="32" t="s">
         <v>200</v>
       </c>
@@ -4141,7 +4140,7 @@
       </c>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="32" t="s">
         <v>200</v>
       </c>
@@ -4172,7 +4171,7 @@
       </c>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="32" t="s">
         <v>200</v>
       </c>
@@ -4205,7 +4204,7 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="32" t="s">
         <v>200</v>
       </c>
@@ -4236,7 +4235,7 @@
       </c>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="32" t="s">
         <v>200</v>
       </c>
@@ -4267,7 +4266,7 @@
       </c>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="32" t="s">
         <v>200</v>
       </c>
@@ -4298,7 +4297,7 @@
       </c>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>205</v>
       </c>
@@ -4326,7 +4325,7 @@
       </c>
       <c r="J70" s="73"/>
     </row>
-    <row r="71" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>205</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>205</v>
       </c>
@@ -4390,7 +4389,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>205</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="32" t="s">
         <v>205</v>
       </c>
@@ -4454,7 +4453,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>205</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>205</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>205</v>
       </c>
@@ -4550,7 +4549,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="32" t="s">
         <v>205</v>
       </c>
@@ -4580,7 +4579,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>205</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>205</v>
       </c>
@@ -4640,7 +4639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>205</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>205</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="32" t="s">
         <v>205</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>205</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>205</v>
       </c>
@@ -4792,7 +4791,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>205</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="32" t="s">
         <v>205</v>
       </c>
@@ -4854,7 +4853,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>205</v>
       </c>
@@ -4886,7 +4885,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>205</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="32" t="s">
         <v>205</v>
       </c>
@@ -4946,7 +4945,7 @@
         <v>32.343000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>205</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>74.655000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>205</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>205</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>205</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>205</v>
       </c>
@@ -5094,7 +5093,7 @@
       </c>
       <c r="J95" s="73"/>
     </row>
-    <row r="96" spans="1:10" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>205</v>
       </c>
@@ -5126,7 +5125,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>205</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="32" t="s">
         <v>205</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>205</v>
       </c>
@@ -5218,7 +5217,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>205</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="32" t="s">
         <v>205</v>
       </c>
@@ -5280,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>205</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>205</v>
       </c>
@@ -5340,7 +5339,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="32" t="s">
         <v>210</v>
       </c>
@@ -5369,7 +5368,7 @@
       <c r="J104" s="73"/>
       <c r="K104" s="1"/>
     </row>
-    <row r="105" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="32" t="s">
         <v>210</v>
       </c>
@@ -5402,7 +5401,7 @@
       </c>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="32" t="s">
         <v>210</v>
       </c>
@@ -5435,7 +5434,7 @@
       </c>
       <c r="K106" s="1"/>
     </row>
-    <row r="107" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="32" t="s">
         <v>210</v>
       </c>
@@ -5468,7 +5467,7 @@
       </c>
       <c r="K107" s="1"/>
     </row>
-    <row r="108" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="32" t="s">
         <v>210</v>
       </c>
@@ -5501,7 +5500,7 @@
       </c>
       <c r="K108" s="1"/>
     </row>
-    <row r="109" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="32" t="s">
         <v>210</v>
       </c>
@@ -5534,7 +5533,7 @@
       </c>
       <c r="K109" s="1"/>
     </row>
-    <row r="110" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="32" t="s">
         <v>210</v>
       </c>
@@ -5567,7 +5566,7 @@
       </c>
       <c r="K110" s="1"/>
     </row>
-    <row r="111" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="32" t="s">
         <v>210</v>
       </c>
@@ -5600,7 +5599,7 @@
       </c>
       <c r="K111" s="1"/>
     </row>
-    <row r="112" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="32" t="s">
         <v>210</v>
       </c>
@@ -5631,7 +5630,7 @@
       </c>
       <c r="K112" s="1"/>
     </row>
-    <row r="113" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="32" t="s">
         <v>210</v>
       </c>
@@ -5662,7 +5661,7 @@
       </c>
       <c r="K113" s="1"/>
     </row>
-    <row r="114" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="32" t="s">
         <v>210</v>
       </c>
@@ -5693,7 +5692,7 @@
       </c>
       <c r="K114" s="1"/>
     </row>
-    <row r="115" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="32" t="s">
         <v>210</v>
       </c>
@@ -5724,7 +5723,7 @@
       </c>
       <c r="K115" s="1"/>
     </row>
-    <row r="116" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="32" t="s">
         <v>210</v>
       </c>
@@ -5757,7 +5756,7 @@
       </c>
       <c r="K116" s="1"/>
     </row>
-    <row r="117" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="32" t="s">
         <v>210</v>
       </c>
@@ -5788,7 +5787,7 @@
       </c>
       <c r="K117" s="1"/>
     </row>
-    <row r="118" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="32" t="s">
         <v>210</v>
       </c>
@@ -5819,7 +5818,7 @@
       </c>
       <c r="K118" s="1"/>
     </row>
-    <row r="119" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="32" t="s">
         <v>210</v>
       </c>
@@ -5850,7 +5849,7 @@
       </c>
       <c r="K119" s="1"/>
     </row>
-    <row r="120" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="32" t="s">
         <v>210</v>
       </c>
@@ -5883,7 +5882,7 @@
       </c>
       <c r="K120" s="1"/>
     </row>
-    <row r="121" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="32" t="s">
         <v>210</v>
       </c>
@@ -5914,7 +5913,7 @@
       </c>
       <c r="K121" s="1"/>
     </row>
-    <row r="122" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="32" t="s">
         <v>210</v>
       </c>
@@ -5947,7 +5946,7 @@
       </c>
       <c r="K122" s="1"/>
     </row>
-    <row r="123" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="32" t="s">
         <v>210</v>
       </c>
@@ -5978,7 +5977,7 @@
       </c>
       <c r="K123" s="1"/>
     </row>
-    <row r="124" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="32" t="s">
         <v>210</v>
       </c>
@@ -6009,7 +6008,7 @@
       </c>
       <c r="K124" s="1"/>
     </row>
-    <row r="125" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="32" t="s">
         <v>210</v>
       </c>
@@ -6040,7 +6039,7 @@
       </c>
       <c r="K125" s="1"/>
     </row>
-    <row r="126" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="32" t="s">
         <v>210</v>
       </c>
@@ -6071,7 +6070,7 @@
       </c>
       <c r="K126" s="1"/>
     </row>
-    <row r="127" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="32" t="s">
         <v>210</v>
       </c>
@@ -6102,7 +6101,7 @@
       </c>
       <c r="K127" s="1"/>
     </row>
-    <row r="128" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="32" t="s">
         <v>210</v>
       </c>
@@ -6133,7 +6132,7 @@
       </c>
       <c r="K128" s="1"/>
     </row>
-    <row r="129" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="32" t="s">
         <v>210</v>
       </c>
@@ -6162,7 +6161,7 @@
       <c r="J129" s="73"/>
       <c r="K129" s="1"/>
     </row>
-    <row r="130" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="32" t="s">
         <v>210</v>
       </c>
@@ -6195,7 +6194,7 @@
       </c>
       <c r="K130" s="1"/>
     </row>
-    <row r="131" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="32" t="s">
         <v>210</v>
       </c>
@@ -6228,7 +6227,7 @@
       </c>
       <c r="K131" s="1"/>
     </row>
-    <row r="132" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="32" t="s">
         <v>210</v>
       </c>
@@ -6259,7 +6258,7 @@
       </c>
       <c r="K132" s="1"/>
     </row>
-    <row r="133" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="32" t="s">
         <v>210</v>
       </c>
@@ -6290,7 +6289,7 @@
       </c>
       <c r="K133" s="1"/>
     </row>
-    <row r="134" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="32" t="s">
         <v>210</v>
       </c>
@@ -6323,7 +6322,7 @@
       </c>
       <c r="K134" s="1"/>
     </row>
-    <row r="135" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="32" t="s">
         <v>210</v>
       </c>
@@ -6354,7 +6353,7 @@
       </c>
       <c r="K135" s="1"/>
     </row>
-    <row r="136" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="32" t="s">
         <v>210</v>
       </c>
@@ -6385,7 +6384,7 @@
       </c>
       <c r="K136" s="1"/>
     </row>
-    <row r="137" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="32" t="s">
         <v>210</v>
       </c>
@@ -6416,7 +6415,7 @@
       </c>
       <c r="K137" s="1"/>
     </row>
-    <row r="138" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="32" t="s">
         <v>215</v>
       </c>
@@ -6445,7 +6444,7 @@
       <c r="J138" s="73"/>
       <c r="K138" s="1"/>
     </row>
-    <row r="139" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="32" t="s">
         <v>215</v>
       </c>
@@ -6478,7 +6477,7 @@
       </c>
       <c r="K139" s="1"/>
     </row>
-    <row r="140" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="32" t="s">
         <v>215</v>
       </c>
@@ -6511,7 +6510,7 @@
       </c>
       <c r="K140" s="1"/>
     </row>
-    <row r="141" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="32" t="s">
         <v>215</v>
       </c>
@@ -6544,7 +6543,7 @@
       </c>
       <c r="K141" s="1"/>
     </row>
-    <row r="142" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="32" t="s">
         <v>215</v>
       </c>
@@ -6577,7 +6576,7 @@
       </c>
       <c r="K142" s="1"/>
     </row>
-    <row r="143" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="32" t="s">
         <v>215</v>
       </c>
@@ -6610,7 +6609,7 @@
       </c>
       <c r="K143" s="1"/>
     </row>
-    <row r="144" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="32" t="s">
         <v>215</v>
       </c>
@@ -6643,7 +6642,7 @@
       </c>
       <c r="K144" s="1"/>
     </row>
-    <row r="145" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="32" t="s">
         <v>215</v>
       </c>
@@ -6676,7 +6675,7 @@
       </c>
       <c r="K145" s="1"/>
     </row>
-    <row r="146" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="32" t="s">
         <v>215</v>
       </c>
@@ -6707,7 +6706,7 @@
       </c>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="32" t="s">
         <v>215</v>
       </c>
@@ -6738,7 +6737,7 @@
       </c>
       <c r="K147" s="1"/>
     </row>
-    <row r="148" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="32" t="s">
         <v>215</v>
       </c>
@@ -6769,7 +6768,7 @@
       </c>
       <c r="K148" s="1"/>
     </row>
-    <row r="149" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="32" t="s">
         <v>215</v>
       </c>
@@ -6800,7 +6799,7 @@
       </c>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="32" t="s">
         <v>215</v>
       </c>
@@ -6833,7 +6832,7 @@
       </c>
       <c r="K150" s="1"/>
     </row>
-    <row r="151" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="32" t="s">
         <v>215</v>
       </c>
@@ -6864,7 +6863,7 @@
       </c>
       <c r="K151" s="1"/>
     </row>
-    <row r="152" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="32" t="s">
         <v>215</v>
       </c>
@@ -6895,7 +6894,7 @@
       </c>
       <c r="K152" s="1"/>
     </row>
-    <row r="153" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="32" t="s">
         <v>215</v>
       </c>
@@ -6926,7 +6925,7 @@
       </c>
       <c r="K153" s="1"/>
     </row>
-    <row r="154" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="32" t="s">
         <v>215</v>
       </c>
@@ -6959,7 +6958,7 @@
       </c>
       <c r="K154" s="1"/>
     </row>
-    <row r="155" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="32" t="s">
         <v>215</v>
       </c>
@@ -6990,7 +6989,7 @@
       </c>
       <c r="K155" s="1"/>
     </row>
-    <row r="156" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="32" t="s">
         <v>215</v>
       </c>
@@ -7023,7 +7022,7 @@
       </c>
       <c r="K156" s="1"/>
     </row>
-    <row r="157" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="32" t="s">
         <v>215</v>
       </c>
@@ -7054,7 +7053,7 @@
       </c>
       <c r="K157" s="1"/>
     </row>
-    <row r="158" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="32" t="s">
         <v>215</v>
       </c>
@@ -7085,7 +7084,7 @@
       </c>
       <c r="K158" s="1"/>
     </row>
-    <row r="159" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="32" t="s">
         <v>215</v>
       </c>
@@ -7116,7 +7115,7 @@
       </c>
       <c r="K159" s="1"/>
     </row>
-    <row r="160" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="32" t="s">
         <v>215</v>
       </c>
@@ -7147,7 +7146,7 @@
       </c>
       <c r="K160" s="1"/>
     </row>
-    <row r="161" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="32" t="s">
         <v>215</v>
       </c>
@@ -7178,7 +7177,7 @@
       </c>
       <c r="K161" s="1"/>
     </row>
-    <row r="162" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="32" t="s">
         <v>215</v>
       </c>
@@ -7209,7 +7208,7 @@
       </c>
       <c r="K162" s="1"/>
     </row>
-    <row r="163" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="32" t="s">
         <v>215</v>
       </c>
@@ -7238,7 +7237,7 @@
       <c r="J163" s="73"/>
       <c r="K163" s="1"/>
     </row>
-    <row r="164" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="32" t="s">
         <v>215</v>
       </c>
@@ -7271,7 +7270,7 @@
       </c>
       <c r="K164" s="1"/>
     </row>
-    <row r="165" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="32" t="s">
         <v>215</v>
       </c>
@@ -7304,7 +7303,7 @@
       </c>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="32" t="s">
         <v>215</v>
       </c>
@@ -7335,7 +7334,7 @@
       </c>
       <c r="K166" s="1"/>
     </row>
-    <row r="167" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="32" t="s">
         <v>215</v>
       </c>
@@ -7366,7 +7365,7 @@
       </c>
       <c r="K167" s="1"/>
     </row>
-    <row r="168" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="32" t="s">
         <v>215</v>
       </c>
@@ -7399,7 +7398,7 @@
       </c>
       <c r="K168" s="1"/>
     </row>
-    <row r="169" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="32" t="s">
         <v>215</v>
       </c>
@@ -7430,7 +7429,7 @@
       </c>
       <c r="K169" s="1"/>
     </row>
-    <row r="170" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="32" t="s">
         <v>215</v>
       </c>
@@ -7461,7 +7460,7 @@
       </c>
       <c r="K170" s="1"/>
     </row>
-    <row r="171" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="32" t="s">
         <v>215</v>
       </c>
@@ -7492,7 +7491,7 @@
       </c>
       <c r="K171" s="1"/>
     </row>
-    <row r="172" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>220</v>
       </c>
@@ -7520,7 +7519,7 @@
       </c>
       <c r="J172" s="73"/>
     </row>
-    <row r="173" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>220</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="32" t="s">
         <v>220</v>
       </c>
@@ -7584,7 +7583,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="32" t="s">
         <v>220</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="32" t="s">
         <v>220</v>
       </c>
@@ -7648,7 +7647,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="32" t="s">
         <v>220</v>
       </c>
@@ -7680,7 +7679,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="32" t="s">
         <v>220</v>
       </c>
@@ -7712,7 +7711,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="32" t="s">
         <v>220</v>
       </c>
@@ -7744,7 +7743,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="32" t="s">
         <v>220</v>
       </c>
@@ -7774,7 +7773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="32" t="s">
         <v>220</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="32" t="s">
         <v>220</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="32" t="s">
         <v>220</v>
       </c>
@@ -7864,7 +7863,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="32" t="s">
         <v>220</v>
       </c>
@@ -7896,7 +7895,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="32" t="s">
         <v>220</v>
       </c>
@@ -7926,7 +7925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>220</v>
       </c>
@@ -7956,7 +7955,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>220</v>
       </c>
@@ -7986,7 +7985,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="32" t="s">
         <v>220</v>
       </c>
@@ -8018,7 +8017,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="32" t="s">
         <v>220</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="32" t="s">
         <v>220</v>
       </c>
@@ -8080,7 +8079,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="32" t="s">
         <v>220</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="32" t="s">
         <v>220</v>
       </c>
@@ -8140,7 +8139,7 @@
         <v>32.343000000000004</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="32" t="s">
         <v>220</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>74.655000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="32" t="s">
         <v>220</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="32" t="s">
         <v>220</v>
       </c>
@@ -8230,7 +8229,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="32" t="s">
         <v>220</v>
       </c>
@@ -8260,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>220</v>
       </c>
@@ -8288,7 +8287,7 @@
       </c>
       <c r="J197" s="73"/>
     </row>
-    <row r="198" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>220</v>
       </c>
@@ -8320,7 +8319,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>220</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>220</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
         <v>220</v>
       </c>
@@ -8412,7 +8411,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
         <v>220</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="32" t="s">
         <v>220</v>
       </c>
@@ -8474,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="32" t="s">
         <v>220</v>
       </c>
@@ -8504,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="32" t="s">
         <v>220</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="32" t="s">
         <v>225</v>
       </c>
@@ -8563,7 +8562,7 @@
       <c r="J206" s="73"/>
       <c r="K206" s="1"/>
     </row>
-    <row r="207" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="32" t="s">
         <v>225</v>
       </c>
@@ -8596,7 +8595,7 @@
       </c>
       <c r="K207" s="1"/>
     </row>
-    <row r="208" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="32" t="s">
         <v>225</v>
       </c>
@@ -8629,7 +8628,7 @@
       </c>
       <c r="K208" s="1"/>
     </row>
-    <row r="209" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="32" t="s">
         <v>225</v>
       </c>
@@ -8662,7 +8661,7 @@
       </c>
       <c r="K209" s="1"/>
     </row>
-    <row r="210" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="32" t="s">
         <v>225</v>
       </c>
@@ -8695,7 +8694,7 @@
       </c>
       <c r="K210" s="1"/>
     </row>
-    <row r="211" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="32" t="s">
         <v>225</v>
       </c>
@@ -8728,7 +8727,7 @@
       </c>
       <c r="K211" s="1"/>
     </row>
-    <row r="212" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="32" t="s">
         <v>225</v>
       </c>
@@ -8761,7 +8760,7 @@
       </c>
       <c r="K212" s="1"/>
     </row>
-    <row r="213" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="32" t="s">
         <v>225</v>
       </c>
@@ -8794,7 +8793,7 @@
       </c>
       <c r="K213" s="1"/>
     </row>
-    <row r="214" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="32" t="s">
         <v>225</v>
       </c>
@@ -8825,7 +8824,7 @@
       </c>
       <c r="K214" s="1"/>
     </row>
-    <row r="215" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="32" t="s">
         <v>225</v>
       </c>
@@ -8856,7 +8855,7 @@
       </c>
       <c r="K215" s="1"/>
     </row>
-    <row r="216" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="32" t="s">
         <v>225</v>
       </c>
@@ -8887,7 +8886,7 @@
       </c>
       <c r="K216" s="1"/>
     </row>
-    <row r="217" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="32" t="s">
         <v>225</v>
       </c>
@@ -8918,7 +8917,7 @@
       </c>
       <c r="K217" s="1"/>
     </row>
-    <row r="218" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="32" t="s">
         <v>225</v>
       </c>
@@ -8951,7 +8950,7 @@
       </c>
       <c r="K218" s="1"/>
     </row>
-    <row r="219" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="32" t="s">
         <v>225</v>
       </c>
@@ -8982,7 +8981,7 @@
       </c>
       <c r="K219" s="1"/>
     </row>
-    <row r="220" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="32" t="s">
         <v>225</v>
       </c>
@@ -9013,7 +9012,7 @@
       </c>
       <c r="K220" s="1"/>
     </row>
-    <row r="221" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="32" t="s">
         <v>225</v>
       </c>
@@ -9044,7 +9043,7 @@
       </c>
       <c r="K221" s="1"/>
     </row>
-    <row r="222" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="32" t="s">
         <v>225</v>
       </c>
@@ -9077,7 +9076,7 @@
       </c>
       <c r="K222" s="1"/>
     </row>
-    <row r="223" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="32" t="s">
         <v>225</v>
       </c>
@@ -9108,7 +9107,7 @@
       </c>
       <c r="K223" s="1"/>
     </row>
-    <row r="224" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="32" t="s">
         <v>225</v>
       </c>
@@ -9141,7 +9140,7 @@
       </c>
       <c r="K224" s="1"/>
     </row>
-    <row r="225" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="32" t="s">
         <v>225</v>
       </c>
@@ -9172,7 +9171,7 @@
       </c>
       <c r="K225" s="1"/>
     </row>
-    <row r="226" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="32" t="s">
         <v>225</v>
       </c>
@@ -9203,7 +9202,7 @@
       </c>
       <c r="K226" s="1"/>
     </row>
-    <row r="227" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="32" t="s">
         <v>225</v>
       </c>
@@ -9234,7 +9233,7 @@
       </c>
       <c r="K227" s="1"/>
     </row>
-    <row r="228" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="32" t="s">
         <v>225</v>
       </c>
@@ -9265,7 +9264,7 @@
       </c>
       <c r="K228" s="1"/>
     </row>
-    <row r="229" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="32" t="s">
         <v>225</v>
       </c>
@@ -9296,7 +9295,7 @@
       </c>
       <c r="K229" s="1"/>
     </row>
-    <row r="230" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="32" t="s">
         <v>225</v>
       </c>
@@ -9327,7 +9326,7 @@
       </c>
       <c r="K230" s="1"/>
     </row>
-    <row r="231" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="32" t="s">
         <v>225</v>
       </c>
@@ -9356,7 +9355,7 @@
       <c r="J231" s="73"/>
       <c r="K231" s="1"/>
     </row>
-    <row r="232" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="32" t="s">
         <v>225</v>
       </c>
@@ -9389,7 +9388,7 @@
       </c>
       <c r="K232" s="1"/>
     </row>
-    <row r="233" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="32" t="s">
         <v>225</v>
       </c>
@@ -9422,7 +9421,7 @@
       </c>
       <c r="K233" s="1"/>
     </row>
-    <row r="234" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="32" t="s">
         <v>225</v>
       </c>
@@ -9453,7 +9452,7 @@
       </c>
       <c r="K234" s="1"/>
     </row>
-    <row r="235" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="32" t="s">
         <v>225</v>
       </c>
@@ -9484,7 +9483,7 @@
       </c>
       <c r="K235" s="1"/>
     </row>
-    <row r="236" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="32" t="s">
         <v>225</v>
       </c>
@@ -9517,7 +9516,7 @@
       </c>
       <c r="K236" s="1"/>
     </row>
-    <row r="237" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="32" t="s">
         <v>225</v>
       </c>
@@ -9548,7 +9547,7 @@
       </c>
       <c r="K237" s="1"/>
     </row>
-    <row r="238" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="32" t="s">
         <v>225</v>
       </c>
@@ -9579,7 +9578,7 @@
       </c>
       <c r="K238" s="1"/>
     </row>
-    <row r="239" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="32" t="s">
         <v>225</v>
       </c>
@@ -9610,7 +9609,7 @@
       </c>
       <c r="K239" s="1"/>
     </row>
-    <row r="240" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="32" t="s">
         <v>231</v>
       </c>
@@ -9639,7 +9638,7 @@
       <c r="J240" s="73"/>
       <c r="K240" s="1"/>
     </row>
-    <row r="241" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="32" t="s">
         <v>231</v>
       </c>
@@ -9672,7 +9671,7 @@
       </c>
       <c r="K241" s="1"/>
     </row>
-    <row r="242" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="32" t="s">
         <v>231</v>
       </c>
@@ -9705,7 +9704,7 @@
       </c>
       <c r="K242" s="1"/>
     </row>
-    <row r="243" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="32" t="s">
         <v>231</v>
       </c>
@@ -9738,7 +9737,7 @@
       </c>
       <c r="K243" s="1"/>
     </row>
-    <row r="244" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="32" t="s">
         <v>231</v>
       </c>
@@ -9771,7 +9770,7 @@
       </c>
       <c r="K244" s="1"/>
     </row>
-    <row r="245" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="32" t="s">
         <v>231</v>
       </c>
@@ -9804,7 +9803,7 @@
       </c>
       <c r="K245" s="1"/>
     </row>
-    <row r="246" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="32" t="s">
         <v>231</v>
       </c>
@@ -9837,7 +9836,7 @@
       </c>
       <c r="K246" s="1"/>
     </row>
-    <row r="247" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="32" t="s">
         <v>231</v>
       </c>
@@ -9870,7 +9869,7 @@
       </c>
       <c r="K247" s="1"/>
     </row>
-    <row r="248" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="32" t="s">
         <v>231</v>
       </c>
@@ -9901,7 +9900,7 @@
       </c>
       <c r="K248" s="1"/>
     </row>
-    <row r="249" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="32" t="s">
         <v>231</v>
       </c>
@@ -9932,7 +9931,7 @@
       </c>
       <c r="K249" s="1"/>
     </row>
-    <row r="250" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="32" t="s">
         <v>231</v>
       </c>
@@ -9963,7 +9962,7 @@
       </c>
       <c r="K250" s="1"/>
     </row>
-    <row r="251" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="32" t="s">
         <v>231</v>
       </c>
@@ -9994,7 +9993,7 @@
       </c>
       <c r="K251" s="1"/>
     </row>
-    <row r="252" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="32" t="s">
         <v>231</v>
       </c>
@@ -10027,7 +10026,7 @@
       </c>
       <c r="K252" s="1"/>
     </row>
-    <row r="253" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="32" t="s">
         <v>231</v>
       </c>
@@ -10058,7 +10057,7 @@
       </c>
       <c r="K253" s="1"/>
     </row>
-    <row r="254" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="32" t="s">
         <v>231</v>
       </c>
@@ -10089,7 +10088,7 @@
       </c>
       <c r="K254" s="1"/>
     </row>
-    <row r="255" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="32" t="s">
         <v>231</v>
       </c>
@@ -10120,7 +10119,7 @@
       </c>
       <c r="K255" s="1"/>
     </row>
-    <row r="256" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="32" t="s">
         <v>231</v>
       </c>
@@ -10153,7 +10152,7 @@
       </c>
       <c r="K256" s="1"/>
     </row>
-    <row r="257" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="32" t="s">
         <v>231</v>
       </c>
@@ -10184,7 +10183,7 @@
       </c>
       <c r="K257" s="1"/>
     </row>
-    <row r="258" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="32" t="s">
         <v>231</v>
       </c>
@@ -10217,7 +10216,7 @@
       </c>
       <c r="K258" s="1"/>
     </row>
-    <row r="259" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="32" t="s">
         <v>231</v>
       </c>
@@ -10248,7 +10247,7 @@
       </c>
       <c r="K259" s="1"/>
     </row>
-    <row r="260" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="32" t="s">
         <v>231</v>
       </c>
@@ -10279,7 +10278,7 @@
       </c>
       <c r="K260" s="1"/>
     </row>
-    <row r="261" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="32" t="s">
         <v>231</v>
       </c>
@@ -10310,7 +10309,7 @@
       </c>
       <c r="K261" s="1"/>
     </row>
-    <row r="262" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="32" t="s">
         <v>231</v>
       </c>
@@ -10341,7 +10340,7 @@
       </c>
       <c r="K262" s="1"/>
     </row>
-    <row r="263" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="32" t="s">
         <v>231</v>
       </c>
@@ -10372,7 +10371,7 @@
       </c>
       <c r="K263" s="1"/>
     </row>
-    <row r="264" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="32" t="s">
         <v>231</v>
       </c>
@@ -10403,7 +10402,7 @@
       </c>
       <c r="K264" s="1"/>
     </row>
-    <row r="265" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="32" t="s">
         <v>231</v>
       </c>
@@ -10432,7 +10431,7 @@
       <c r="J265" s="73"/>
       <c r="K265" s="1"/>
     </row>
-    <row r="266" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="32" t="s">
         <v>231</v>
       </c>
@@ -10465,7 +10464,7 @@
       </c>
       <c r="K266" s="1"/>
     </row>
-    <row r="267" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="32" t="s">
         <v>231</v>
       </c>
@@ -10498,7 +10497,7 @@
       </c>
       <c r="K267" s="1"/>
     </row>
-    <row r="268" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="32" t="s">
         <v>231</v>
       </c>
@@ -10529,7 +10528,7 @@
       </c>
       <c r="K268" s="1"/>
     </row>
-    <row r="269" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="32" t="s">
         <v>231</v>
       </c>
@@ -10560,7 +10559,7 @@
       </c>
       <c r="K269" s="1"/>
     </row>
-    <row r="270" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="32" t="s">
         <v>231</v>
       </c>
@@ -10593,7 +10592,7 @@
       </c>
       <c r="K270" s="1"/>
     </row>
-    <row r="271" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="32" t="s">
         <v>231</v>
       </c>
@@ -10624,7 +10623,7 @@
       </c>
       <c r="K271" s="1"/>
     </row>
-    <row r="272" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="32" t="s">
         <v>231</v>
       </c>
@@ -10655,7 +10654,7 @@
       </c>
       <c r="K272" s="1"/>
     </row>
-    <row r="273" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="32" t="s">
         <v>231</v>
       </c>
@@ -10686,7 +10685,7 @@
       </c>
       <c r="K273" s="1"/>
     </row>
-    <row r="274" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="32" t="s">
         <v>236</v>
       </c>
@@ -10715,7 +10714,7 @@
       <c r="J274" s="73"/>
       <c r="K274" s="1"/>
     </row>
-    <row r="275" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="32" t="s">
         <v>236</v>
       </c>
@@ -10748,7 +10747,7 @@
       </c>
       <c r="K275" s="1"/>
     </row>
-    <row r="276" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="32" t="s">
         <v>236</v>
       </c>
@@ -10781,7 +10780,7 @@
       </c>
       <c r="K276" s="1"/>
     </row>
-    <row r="277" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="32" t="s">
         <v>236</v>
       </c>
@@ -10814,7 +10813,7 @@
       </c>
       <c r="K277" s="1"/>
     </row>
-    <row r="278" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="32" t="s">
         <v>236</v>
       </c>
@@ -10847,7 +10846,7 @@
       </c>
       <c r="K278" s="1"/>
     </row>
-    <row r="279" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="32" t="s">
         <v>236</v>
       </c>
@@ -10880,7 +10879,7 @@
       </c>
       <c r="K279" s="1"/>
     </row>
-    <row r="280" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="32" t="s">
         <v>236</v>
       </c>
@@ -10913,7 +10912,7 @@
       </c>
       <c r="K280" s="1"/>
     </row>
-    <row r="281" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="32" t="s">
         <v>236</v>
       </c>
@@ -10946,7 +10945,7 @@
       </c>
       <c r="K281" s="1"/>
     </row>
-    <row r="282" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="32" t="s">
         <v>236</v>
       </c>
@@ -10977,7 +10976,7 @@
       </c>
       <c r="K282" s="1"/>
     </row>
-    <row r="283" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="32" t="s">
         <v>236</v>
       </c>
@@ -11008,7 +11007,7 @@
       </c>
       <c r="K283" s="1"/>
     </row>
-    <row r="284" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="32" t="s">
         <v>236</v>
       </c>
@@ -11039,7 +11038,7 @@
       </c>
       <c r="K284" s="1"/>
     </row>
-    <row r="285" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="32" t="s">
         <v>236</v>
       </c>
@@ -11070,7 +11069,7 @@
       </c>
       <c r="K285" s="1"/>
     </row>
-    <row r="286" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="32" t="s">
         <v>236</v>
       </c>
@@ -11103,7 +11102,7 @@
       </c>
       <c r="K286" s="1"/>
     </row>
-    <row r="287" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="32" t="s">
         <v>236</v>
       </c>
@@ -11134,7 +11133,7 @@
       </c>
       <c r="K287" s="1"/>
     </row>
-    <row r="288" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="32" t="s">
         <v>236</v>
       </c>
@@ -11165,7 +11164,7 @@
       </c>
       <c r="K288" s="1"/>
     </row>
-    <row r="289" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="32" t="s">
         <v>236</v>
       </c>
@@ -11196,7 +11195,7 @@
       </c>
       <c r="K289" s="1"/>
     </row>
-    <row r="290" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="32" t="s">
         <v>236</v>
       </c>
@@ -11229,7 +11228,7 @@
       </c>
       <c r="K290" s="1"/>
     </row>
-    <row r="291" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="32" t="s">
         <v>236</v>
       </c>
@@ -11260,7 +11259,7 @@
       </c>
       <c r="K291" s="1"/>
     </row>
-    <row r="292" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="32" t="s">
         <v>236</v>
       </c>
@@ -11293,7 +11292,7 @@
       </c>
       <c r="K292" s="1"/>
     </row>
-    <row r="293" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="32" t="s">
         <v>236</v>
       </c>
@@ -11324,7 +11323,7 @@
       </c>
       <c r="K293" s="1"/>
     </row>
-    <row r="294" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="32" t="s">
         <v>236</v>
       </c>
@@ -11355,7 +11354,7 @@
       </c>
       <c r="K294" s="1"/>
     </row>
-    <row r="295" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="32" t="s">
         <v>236</v>
       </c>
@@ -11386,7 +11385,7 @@
       </c>
       <c r="K295" s="1"/>
     </row>
-    <row r="296" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="32" t="s">
         <v>236</v>
       </c>
@@ -11417,7 +11416,7 @@
       </c>
       <c r="K296" s="1"/>
     </row>
-    <row r="297" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="32" t="s">
         <v>236</v>
       </c>
@@ -11448,7 +11447,7 @@
       </c>
       <c r="K297" s="1"/>
     </row>
-    <row r="298" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="32" t="s">
         <v>236</v>
       </c>
@@ -11479,7 +11478,7 @@
       </c>
       <c r="K298" s="1"/>
     </row>
-    <row r="299" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="32" t="s">
         <v>236</v>
       </c>
@@ -11508,7 +11507,7 @@
       <c r="J299" s="73"/>
       <c r="K299" s="1"/>
     </row>
-    <row r="300" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="32" t="s">
         <v>236</v>
       </c>
@@ -11541,7 +11540,7 @@
       </c>
       <c r="K300" s="1"/>
     </row>
-    <row r="301" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="32" t="s">
         <v>236</v>
       </c>
@@ -11574,7 +11573,7 @@
       </c>
       <c r="K301" s="1"/>
     </row>
-    <row r="302" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="32" t="s">
         <v>236</v>
       </c>
@@ -11605,7 +11604,7 @@
       </c>
       <c r="K302" s="1"/>
     </row>
-    <row r="303" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="32" t="s">
         <v>236</v>
       </c>
@@ -11636,7 +11635,7 @@
       </c>
       <c r="K303" s="1"/>
     </row>
-    <row r="304" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="32" t="s">
         <v>236</v>
       </c>
@@ -11669,7 +11668,7 @@
       </c>
       <c r="K304" s="1"/>
     </row>
-    <row r="305" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="32" t="s">
         <v>236</v>
       </c>
@@ -11700,7 +11699,7 @@
       </c>
       <c r="K305" s="1"/>
     </row>
-    <row r="306" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="32" t="s">
         <v>236</v>
       </c>
@@ -11731,7 +11730,7 @@
       </c>
       <c r="K306" s="1"/>
     </row>
-    <row r="307" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="32" t="s">
         <v>236</v>
       </c>
@@ -11762,7 +11761,7 @@
       </c>
       <c r="K307" s="1"/>
     </row>
-    <row r="308" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="32" t="s">
         <v>241</v>
       </c>
@@ -11791,7 +11790,7 @@
       <c r="J308" s="73"/>
       <c r="K308" s="1"/>
     </row>
-    <row r="309" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="32" t="s">
         <v>241</v>
       </c>
@@ -11824,7 +11823,7 @@
       </c>
       <c r="K309" s="1"/>
     </row>
-    <row r="310" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="32" t="s">
         <v>241</v>
       </c>
@@ -11857,7 +11856,7 @@
       </c>
       <c r="K310" s="1"/>
     </row>
-    <row r="311" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="32" t="s">
         <v>241</v>
       </c>
@@ -11890,7 +11889,7 @@
       </c>
       <c r="K311" s="1"/>
     </row>
-    <row r="312" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="32" t="s">
         <v>241</v>
       </c>
@@ -11923,7 +11922,7 @@
       </c>
       <c r="K312" s="1"/>
     </row>
-    <row r="313" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="32" t="s">
         <v>241</v>
       </c>
@@ -11956,7 +11955,7 @@
       </c>
       <c r="K313" s="1"/>
     </row>
-    <row r="314" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="32" t="s">
         <v>241</v>
       </c>
@@ -11989,7 +11988,7 @@
       </c>
       <c r="K314" s="1"/>
     </row>
-    <row r="315" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="32" t="s">
         <v>241</v>
       </c>
@@ -12022,7 +12021,7 @@
       </c>
       <c r="K315" s="1"/>
     </row>
-    <row r="316" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="32" t="s">
         <v>241</v>
       </c>
@@ -12053,7 +12052,7 @@
       </c>
       <c r="K316" s="1"/>
     </row>
-    <row r="317" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="32" t="s">
         <v>241</v>
       </c>
@@ -12084,7 +12083,7 @@
       </c>
       <c r="K317" s="1"/>
     </row>
-    <row r="318" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="32" t="s">
         <v>241</v>
       </c>
@@ -12115,7 +12114,7 @@
       </c>
       <c r="K318" s="1"/>
     </row>
-    <row r="319" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="32" t="s">
         <v>241</v>
       </c>
@@ -12146,7 +12145,7 @@
       </c>
       <c r="K319" s="1"/>
     </row>
-    <row r="320" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="32" t="s">
         <v>241</v>
       </c>
@@ -12179,7 +12178,7 @@
       </c>
       <c r="K320" s="1"/>
     </row>
-    <row r="321" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="32" t="s">
         <v>241</v>
       </c>
@@ -12210,7 +12209,7 @@
       </c>
       <c r="K321" s="1"/>
     </row>
-    <row r="322" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="32" t="s">
         <v>241</v>
       </c>
@@ -12241,7 +12240,7 @@
       </c>
       <c r="K322" s="1"/>
     </row>
-    <row r="323" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="32" t="s">
         <v>241</v>
       </c>
@@ -12272,7 +12271,7 @@
       </c>
       <c r="K323" s="1"/>
     </row>
-    <row r="324" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="32" t="s">
         <v>241</v>
       </c>
@@ -12305,7 +12304,7 @@
       </c>
       <c r="K324" s="1"/>
     </row>
-    <row r="325" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="32" t="s">
         <v>241</v>
       </c>
@@ -12336,7 +12335,7 @@
       </c>
       <c r="K325" s="1"/>
     </row>
-    <row r="326" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="32" t="s">
         <v>241</v>
       </c>
@@ -12369,7 +12368,7 @@
       </c>
       <c r="K326" s="1"/>
     </row>
-    <row r="327" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="32" t="s">
         <v>241</v>
       </c>
@@ -12400,7 +12399,7 @@
       </c>
       <c r="K327" s="1"/>
     </row>
-    <row r="328" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="32" t="s">
         <v>241</v>
       </c>
@@ -12431,7 +12430,7 @@
       </c>
       <c r="K328" s="1"/>
     </row>
-    <row r="329" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="32" t="s">
         <v>241</v>
       </c>
@@ -12462,7 +12461,7 @@
       </c>
       <c r="K329" s="1"/>
     </row>
-    <row r="330" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="32" t="s">
         <v>241</v>
       </c>
@@ -12493,7 +12492,7 @@
       </c>
       <c r="K330" s="1"/>
     </row>
-    <row r="331" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="32" t="s">
         <v>241</v>
       </c>
@@ -12524,7 +12523,7 @@
       </c>
       <c r="K331" s="1"/>
     </row>
-    <row r="332" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="32" t="s">
         <v>241</v>
       </c>
@@ -12555,7 +12554,7 @@
       </c>
       <c r="K332" s="1"/>
     </row>
-    <row r="333" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="32" t="s">
         <v>241</v>
       </c>
@@ -12584,7 +12583,7 @@
       <c r="J333" s="73"/>
       <c r="K333" s="1"/>
     </row>
-    <row r="334" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="32" t="s">
         <v>241</v>
       </c>
@@ -12617,7 +12616,7 @@
       </c>
       <c r="K334" s="1"/>
     </row>
-    <row r="335" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="32" t="s">
         <v>241</v>
       </c>
@@ -12650,7 +12649,7 @@
       </c>
       <c r="K335" s="1"/>
     </row>
-    <row r="336" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="32" t="s">
         <v>241</v>
       </c>
@@ -12681,7 +12680,7 @@
       </c>
       <c r="K336" s="1"/>
     </row>
-    <row r="337" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="32" t="s">
         <v>241</v>
       </c>
@@ -12712,7 +12711,7 @@
       </c>
       <c r="K337" s="1"/>
     </row>
-    <row r="338" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="32" t="s">
         <v>241</v>
       </c>
@@ -12745,7 +12744,7 @@
       </c>
       <c r="K338" s="1"/>
     </row>
-    <row r="339" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="32" t="s">
         <v>241</v>
       </c>
@@ -12776,7 +12775,7 @@
       </c>
       <c r="K339" s="1"/>
     </row>
-    <row r="340" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="32" t="s">
         <v>241</v>
       </c>
@@ -12807,7 +12806,7 @@
       </c>
       <c r="K340" s="1"/>
     </row>
-    <row r="341" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="32" t="s">
         <v>241</v>
       </c>
@@ -12838,7 +12837,7 @@
       </c>
       <c r="K341" s="1"/>
     </row>
-    <row r="342" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="32" t="s">
         <v>246</v>
       </c>
@@ -12867,7 +12866,7 @@
       <c r="J342" s="73"/>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="32" t="s">
         <v>246</v>
       </c>
@@ -12900,7 +12899,7 @@
       </c>
       <c r="K343" s="1"/>
     </row>
-    <row r="344" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="32" t="s">
         <v>246</v>
       </c>
@@ -12933,7 +12932,7 @@
       </c>
       <c r="K344" s="1"/>
     </row>
-    <row r="345" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="32" t="s">
         <v>246</v>
       </c>
@@ -12966,7 +12965,7 @@
       </c>
       <c r="K345" s="1"/>
     </row>
-    <row r="346" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="32" t="s">
         <v>246</v>
       </c>
@@ -12999,7 +12998,7 @@
       </c>
       <c r="K346" s="1"/>
     </row>
-    <row r="347" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="32" t="s">
         <v>246</v>
       </c>
@@ -13032,7 +13031,7 @@
       </c>
       <c r="K347" s="1"/>
     </row>
-    <row r="348" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="32" t="s">
         <v>246</v>
       </c>
@@ -13065,7 +13064,7 @@
       </c>
       <c r="K348" s="1"/>
     </row>
-    <row r="349" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="32" t="s">
         <v>246</v>
       </c>
@@ -13098,7 +13097,7 @@
       </c>
       <c r="K349" s="1"/>
     </row>
-    <row r="350" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="32" t="s">
         <v>246</v>
       </c>
@@ -13129,7 +13128,7 @@
       </c>
       <c r="K350" s="1"/>
     </row>
-    <row r="351" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="32" t="s">
         <v>246</v>
       </c>
@@ -13160,7 +13159,7 @@
       </c>
       <c r="K351" s="1"/>
     </row>
-    <row r="352" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="32" t="s">
         <v>246</v>
       </c>
@@ -13191,7 +13190,7 @@
       </c>
       <c r="K352" s="1"/>
     </row>
-    <row r="353" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="32" t="s">
         <v>246</v>
       </c>
@@ -13222,7 +13221,7 @@
       </c>
       <c r="K353" s="1"/>
     </row>
-    <row r="354" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="32" t="s">
         <v>246</v>
       </c>
@@ -13255,7 +13254,7 @@
       </c>
       <c r="K354" s="1"/>
     </row>
-    <row r="355" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="32" t="s">
         <v>246</v>
       </c>
@@ -13286,7 +13285,7 @@
       </c>
       <c r="K355" s="1"/>
     </row>
-    <row r="356" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="32" t="s">
         <v>246</v>
       </c>
@@ -13317,7 +13316,7 @@
       </c>
       <c r="K356" s="1"/>
     </row>
-    <row r="357" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="32" t="s">
         <v>246</v>
       </c>
@@ -13348,7 +13347,7 @@
       </c>
       <c r="K357" s="1"/>
     </row>
-    <row r="358" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="32" t="s">
         <v>246</v>
       </c>
@@ -13381,7 +13380,7 @@
       </c>
       <c r="K358" s="1"/>
     </row>
-    <row r="359" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="32" t="s">
         <v>246</v>
       </c>
@@ -13412,7 +13411,7 @@
       </c>
       <c r="K359" s="1"/>
     </row>
-    <row r="360" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="32" t="s">
         <v>246</v>
       </c>
@@ -13445,7 +13444,7 @@
       </c>
       <c r="K360" s="1"/>
     </row>
-    <row r="361" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="32" t="s">
         <v>246</v>
       </c>
@@ -13476,7 +13475,7 @@
       </c>
       <c r="K361" s="1"/>
     </row>
-    <row r="362" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="32" t="s">
         <v>246</v>
       </c>
@@ -13507,7 +13506,7 @@
       </c>
       <c r="K362" s="1"/>
     </row>
-    <row r="363" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="32" t="s">
         <v>246</v>
       </c>
@@ -13538,7 +13537,7 @@
       </c>
       <c r="K363" s="1"/>
     </row>
-    <row r="364" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="32" t="s">
         <v>246</v>
       </c>
@@ -13569,7 +13568,7 @@
       </c>
       <c r="K364" s="1"/>
     </row>
-    <row r="365" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="32" t="s">
         <v>246</v>
       </c>
@@ -13600,7 +13599,7 @@
       </c>
       <c r="K365" s="1"/>
     </row>
-    <row r="366" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="32" t="s">
         <v>246</v>
       </c>
@@ -13631,7 +13630,7 @@
       </c>
       <c r="K366" s="1"/>
     </row>
-    <row r="367" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="32" t="s">
         <v>246</v>
       </c>
@@ -13660,7 +13659,7 @@
       <c r="J367" s="73"/>
       <c r="K367" s="1"/>
     </row>
-    <row r="368" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="32" t="s">
         <v>246</v>
       </c>
@@ -13693,7 +13692,7 @@
       </c>
       <c r="K368" s="1"/>
     </row>
-    <row r="369" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="32" t="s">
         <v>246</v>
       </c>
@@ -13726,7 +13725,7 @@
       </c>
       <c r="K369" s="1"/>
     </row>
-    <row r="370" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="32" t="s">
         <v>246</v>
       </c>
@@ -13757,7 +13756,7 @@
       </c>
       <c r="K370" s="1"/>
     </row>
-    <row r="371" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="32" t="s">
         <v>246</v>
       </c>
@@ -13788,7 +13787,7 @@
       </c>
       <c r="K371" s="1"/>
     </row>
-    <row r="372" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="32" t="s">
         <v>246</v>
       </c>
@@ -13821,7 +13820,7 @@
       </c>
       <c r="K372" s="1"/>
     </row>
-    <row r="373" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="32" t="s">
         <v>246</v>
       </c>
@@ -13852,7 +13851,7 @@
       </c>
       <c r="K373" s="1"/>
     </row>
-    <row r="374" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="32" t="s">
         <v>246</v>
       </c>
@@ -13883,7 +13882,7 @@
       </c>
       <c r="K374" s="1"/>
     </row>
-    <row r="375" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="32" t="s">
         <v>246</v>
       </c>
@@ -13914,7 +13913,7 @@
       </c>
       <c r="K375" s="1"/>
     </row>
-    <row r="376" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="32" t="s">
         <v>251</v>
       </c>
@@ -13943,7 +13942,7 @@
       <c r="J376" s="73"/>
       <c r="K376" s="1"/>
     </row>
-    <row r="377" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="32" t="s">
         <v>251</v>
       </c>
@@ -13976,7 +13975,7 @@
       </c>
       <c r="K377" s="1"/>
     </row>
-    <row r="378" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="32" t="s">
         <v>251</v>
       </c>
@@ -14009,7 +14008,7 @@
       </c>
       <c r="K378" s="1"/>
     </row>
-    <row r="379" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="32" t="s">
         <v>251</v>
       </c>
@@ -14042,7 +14041,7 @@
       </c>
       <c r="K379" s="1"/>
     </row>
-    <row r="380" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="32" t="s">
         <v>251</v>
       </c>
@@ -14075,7 +14074,7 @@
       </c>
       <c r="K380" s="1"/>
     </row>
-    <row r="381" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="32" t="s">
         <v>251</v>
       </c>
@@ -14108,7 +14107,7 @@
       </c>
       <c r="K381" s="1"/>
     </row>
-    <row r="382" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="32" t="s">
         <v>251</v>
       </c>
@@ -14141,7 +14140,7 @@
       </c>
       <c r="K382" s="1"/>
     </row>
-    <row r="383" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="32" t="s">
         <v>251</v>
       </c>
@@ -14174,7 +14173,7 @@
       </c>
       <c r="K383" s="1"/>
     </row>
-    <row r="384" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="32" t="s">
         <v>251</v>
       </c>
@@ -14205,7 +14204,7 @@
       </c>
       <c r="K384" s="1"/>
     </row>
-    <row r="385" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="32" t="s">
         <v>251</v>
       </c>
@@ -14236,7 +14235,7 @@
       </c>
       <c r="K385" s="1"/>
     </row>
-    <row r="386" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="32" t="s">
         <v>251</v>
       </c>
@@ -14267,7 +14266,7 @@
       </c>
       <c r="K386" s="1"/>
     </row>
-    <row r="387" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="32" t="s">
         <v>251</v>
       </c>
@@ -14298,7 +14297,7 @@
       </c>
       <c r="K387" s="1"/>
     </row>
-    <row r="388" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="32" t="s">
         <v>251</v>
       </c>
@@ -14331,7 +14330,7 @@
       </c>
       <c r="K388" s="1"/>
     </row>
-    <row r="389" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="32" t="s">
         <v>251</v>
       </c>
@@ -14362,7 +14361,7 @@
       </c>
       <c r="K389" s="1"/>
     </row>
-    <row r="390" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="32" t="s">
         <v>251</v>
       </c>
@@ -14393,7 +14392,7 @@
       </c>
       <c r="K390" s="1"/>
     </row>
-    <row r="391" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="32" t="s">
         <v>251</v>
       </c>
@@ -14424,7 +14423,7 @@
       </c>
       <c r="K391" s="1"/>
     </row>
-    <row r="392" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="32" t="s">
         <v>251</v>
       </c>
@@ -14457,7 +14456,7 @@
       </c>
       <c r="K392" s="1"/>
     </row>
-    <row r="393" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="32" t="s">
         <v>251</v>
       </c>
@@ -14488,7 +14487,7 @@
       </c>
       <c r="K393" s="1"/>
     </row>
-    <row r="394" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="32" t="s">
         <v>251</v>
       </c>
@@ -14521,7 +14520,7 @@
       </c>
       <c r="K394" s="1"/>
     </row>
-    <row r="395" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="32" t="s">
         <v>251</v>
       </c>
@@ -14552,7 +14551,7 @@
       </c>
       <c r="K395" s="1"/>
     </row>
-    <row r="396" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="32" t="s">
         <v>251</v>
       </c>
@@ -14583,7 +14582,7 @@
       </c>
       <c r="K396" s="1"/>
     </row>
-    <row r="397" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="32" t="s">
         <v>251</v>
       </c>
@@ -14614,7 +14613,7 @@
       </c>
       <c r="K397" s="1"/>
     </row>
-    <row r="398" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="32" t="s">
         <v>251</v>
       </c>
@@ -14645,7 +14644,7 @@
       </c>
       <c r="K398" s="1"/>
     </row>
-    <row r="399" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="32" t="s">
         <v>251</v>
       </c>
@@ -14676,7 +14675,7 @@
       </c>
       <c r="K399" s="1"/>
     </row>
-    <row r="400" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="32" t="s">
         <v>251</v>
       </c>
@@ -14707,7 +14706,7 @@
       </c>
       <c r="K400" s="1"/>
     </row>
-    <row r="401" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="32" t="s">
         <v>251</v>
       </c>
@@ -14736,7 +14735,7 @@
       <c r="J401" s="73"/>
       <c r="K401" s="1"/>
     </row>
-    <row r="402" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="32" t="s">
         <v>251</v>
       </c>
@@ -14769,7 +14768,7 @@
       </c>
       <c r="K402" s="1"/>
     </row>
-    <row r="403" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="32" t="s">
         <v>251</v>
       </c>
@@ -14802,7 +14801,7 @@
       </c>
       <c r="K403" s="1"/>
     </row>
-    <row r="404" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="32" t="s">
         <v>251</v>
       </c>
@@ -14833,7 +14832,7 @@
       </c>
       <c r="K404" s="1"/>
     </row>
-    <row r="405" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="32" t="s">
         <v>251</v>
       </c>
@@ -14864,7 +14863,7 @@
       </c>
       <c r="K405" s="1"/>
     </row>
-    <row r="406" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="32" t="s">
         <v>251</v>
       </c>
@@ -14897,7 +14896,7 @@
       </c>
       <c r="K406" s="1"/>
     </row>
-    <row r="407" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="32" t="s">
         <v>251</v>
       </c>
@@ -14928,7 +14927,7 @@
       </c>
       <c r="K407" s="1"/>
     </row>
-    <row r="408" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="32" t="s">
         <v>251</v>
       </c>
@@ -14959,7 +14958,7 @@
       </c>
       <c r="K408" s="1"/>
     </row>
-    <row r="409" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="32" t="s">
         <v>251</v>
       </c>
@@ -14990,7 +14989,7 @@
       </c>
       <c r="K409" s="1"/>
     </row>
-    <row r="410" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="32" t="s">
         <v>256</v>
       </c>
@@ -15019,7 +15018,7 @@
       <c r="J410" s="73"/>
       <c r="K410" s="1"/>
     </row>
-    <row r="411" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="32" t="s">
         <v>256</v>
       </c>
@@ -15052,7 +15051,7 @@
       </c>
       <c r="K411" s="1"/>
     </row>
-    <row r="412" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="32" t="s">
         <v>256</v>
       </c>
@@ -15085,7 +15084,7 @@
       </c>
       <c r="K412" s="1"/>
     </row>
-    <row r="413" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="32" t="s">
         <v>256</v>
       </c>
@@ -15118,7 +15117,7 @@
       </c>
       <c r="K413" s="1"/>
     </row>
-    <row r="414" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="32" t="s">
         <v>256</v>
       </c>
@@ -15151,7 +15150,7 @@
       </c>
       <c r="K414" s="1"/>
     </row>
-    <row r="415" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="32" t="s">
         <v>256</v>
       </c>
@@ -15184,7 +15183,7 @@
       </c>
       <c r="K415" s="1"/>
     </row>
-    <row r="416" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="32" t="s">
         <v>256</v>
       </c>
@@ -15217,7 +15216,7 @@
       </c>
       <c r="K416" s="1"/>
     </row>
-    <row r="417" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="32" t="s">
         <v>256</v>
       </c>
@@ -15250,7 +15249,7 @@
       </c>
       <c r="K417" s="1"/>
     </row>
-    <row r="418" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="32" t="s">
         <v>256</v>
       </c>
@@ -15281,7 +15280,7 @@
       </c>
       <c r="K418" s="1"/>
     </row>
-    <row r="419" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="32" t="s">
         <v>256</v>
       </c>
@@ -15312,7 +15311,7 @@
       </c>
       <c r="K419" s="1"/>
     </row>
-    <row r="420" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="32" t="s">
         <v>256</v>
       </c>
@@ -15343,7 +15342,7 @@
       </c>
       <c r="K420" s="1"/>
     </row>
-    <row r="421" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="32" t="s">
         <v>256</v>
       </c>
@@ -15374,7 +15373,7 @@
       </c>
       <c r="K421" s="1"/>
     </row>
-    <row r="422" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="32" t="s">
         <v>256</v>
       </c>
@@ -15407,7 +15406,7 @@
       </c>
       <c r="K422" s="1"/>
     </row>
-    <row r="423" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="32" t="s">
         <v>256</v>
       </c>
@@ -15438,7 +15437,7 @@
       </c>
       <c r="K423" s="1"/>
     </row>
-    <row r="424" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="32" t="s">
         <v>256</v>
       </c>
@@ -15469,7 +15468,7 @@
       </c>
       <c r="K424" s="1"/>
     </row>
-    <row r="425" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="32" t="s">
         <v>256</v>
       </c>
@@ -15500,7 +15499,7 @@
       </c>
       <c r="K425" s="1"/>
     </row>
-    <row r="426" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="32" t="s">
         <v>256</v>
       </c>
@@ -15533,7 +15532,7 @@
       </c>
       <c r="K426" s="1"/>
     </row>
-    <row r="427" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="32" t="s">
         <v>256</v>
       </c>
@@ -15564,7 +15563,7 @@
       </c>
       <c r="K427" s="1"/>
     </row>
-    <row r="428" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="32" t="s">
         <v>256</v>
       </c>
@@ -15597,7 +15596,7 @@
       </c>
       <c r="K428" s="1"/>
     </row>
-    <row r="429" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="32" t="s">
         <v>256</v>
       </c>
@@ -15628,7 +15627,7 @@
       </c>
       <c r="K429" s="1"/>
     </row>
-    <row r="430" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="32" t="s">
         <v>256</v>
       </c>
@@ -15659,7 +15658,7 @@
       </c>
       <c r="K430" s="1"/>
     </row>
-    <row r="431" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="32" t="s">
         <v>256</v>
       </c>
@@ -15690,7 +15689,7 @@
       </c>
       <c r="K431" s="1"/>
     </row>
-    <row r="432" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="32" t="s">
         <v>256</v>
       </c>
@@ -15721,7 +15720,7 @@
       </c>
       <c r="K432" s="1"/>
     </row>
-    <row r="433" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="32" t="s">
         <v>256</v>
       </c>
@@ -15752,7 +15751,7 @@
       </c>
       <c r="K433" s="1"/>
     </row>
-    <row r="434" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="32" t="s">
         <v>256</v>
       </c>
@@ -15783,7 +15782,7 @@
       </c>
       <c r="K434" s="1"/>
     </row>
-    <row r="435" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="32" t="s">
         <v>256</v>
       </c>
@@ -15812,7 +15811,7 @@
       <c r="J435" s="73"/>
       <c r="K435" s="1"/>
     </row>
-    <row r="436" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="32" t="s">
         <v>256</v>
       </c>
@@ -15845,7 +15844,7 @@
       </c>
       <c r="K436" s="1"/>
     </row>
-    <row r="437" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="32" t="s">
         <v>256</v>
       </c>
@@ -15878,7 +15877,7 @@
       </c>
       <c r="K437" s="1"/>
     </row>
-    <row r="438" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="32" t="s">
         <v>256</v>
       </c>
@@ -15909,7 +15908,7 @@
       </c>
       <c r="K438" s="1"/>
     </row>
-    <row r="439" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="32" t="s">
         <v>256</v>
       </c>
@@ -15940,7 +15939,7 @@
       </c>
       <c r="K439" s="1"/>
     </row>
-    <row r="440" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="32" t="s">
         <v>256</v>
       </c>
@@ -15973,7 +15972,7 @@
       </c>
       <c r="K440" s="1"/>
     </row>
-    <row r="441" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="32" t="s">
         <v>256</v>
       </c>
@@ -16004,7 +16003,7 @@
       </c>
       <c r="K441" s="1"/>
     </row>
-    <row r="442" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="32" t="s">
         <v>256</v>
       </c>
@@ -16035,7 +16034,7 @@
       </c>
       <c r="K442" s="1"/>
     </row>
-    <row r="443" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="32" t="s">
         <v>256</v>
       </c>
@@ -16066,7 +16065,7 @@
       </c>
       <c r="K443" s="1"/>
     </row>
-    <row r="444" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="32" t="s">
         <v>261</v>
       </c>
@@ -16095,7 +16094,7 @@
       <c r="J444" s="73"/>
       <c r="K444" s="1"/>
     </row>
-    <row r="445" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="32" t="s">
         <v>261</v>
       </c>
@@ -16128,7 +16127,7 @@
       </c>
       <c r="K445" s="1"/>
     </row>
-    <row r="446" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="32" t="s">
         <v>261</v>
       </c>
@@ -16161,7 +16160,7 @@
       </c>
       <c r="K446" s="1"/>
     </row>
-    <row r="447" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="32" t="s">
         <v>261</v>
       </c>
@@ -16194,7 +16193,7 @@
       </c>
       <c r="K447" s="1"/>
     </row>
-    <row r="448" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="32" t="s">
         <v>261</v>
       </c>
@@ -16227,7 +16226,7 @@
       </c>
       <c r="K448" s="1"/>
     </row>
-    <row r="449" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="32" t="s">
         <v>261</v>
       </c>
@@ -16260,7 +16259,7 @@
       </c>
       <c r="K449" s="1"/>
     </row>
-    <row r="450" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="32" t="s">
         <v>261</v>
       </c>
@@ -16293,7 +16292,7 @@
       </c>
       <c r="K450" s="1"/>
     </row>
-    <row r="451" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="32" t="s">
         <v>261</v>
       </c>
@@ -16326,7 +16325,7 @@
       </c>
       <c r="K451" s="1"/>
     </row>
-    <row r="452" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="32" t="s">
         <v>261</v>
       </c>
@@ -16357,7 +16356,7 @@
       </c>
       <c r="K452" s="1"/>
     </row>
-    <row r="453" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="32" t="s">
         <v>261</v>
       </c>
@@ -16388,7 +16387,7 @@
       </c>
       <c r="K453" s="1"/>
     </row>
-    <row r="454" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="32" t="s">
         <v>261</v>
       </c>
@@ -16419,7 +16418,7 @@
       </c>
       <c r="K454" s="1"/>
     </row>
-    <row r="455" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="32" t="s">
         <v>261</v>
       </c>
@@ -16450,7 +16449,7 @@
       </c>
       <c r="K455" s="1"/>
     </row>
-    <row r="456" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="32" t="s">
         <v>261</v>
       </c>
@@ -16483,7 +16482,7 @@
       </c>
       <c r="K456" s="1"/>
     </row>
-    <row r="457" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="32" t="s">
         <v>261</v>
       </c>
@@ -16514,7 +16513,7 @@
       </c>
       <c r="K457" s="1"/>
     </row>
-    <row r="458" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="32" t="s">
         <v>261</v>
       </c>
@@ -16545,7 +16544,7 @@
       </c>
       <c r="K458" s="1"/>
     </row>
-    <row r="459" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="32" t="s">
         <v>261</v>
       </c>
@@ -16576,7 +16575,7 @@
       </c>
       <c r="K459" s="1"/>
     </row>
-    <row r="460" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="32" t="s">
         <v>261</v>
       </c>
@@ -16609,7 +16608,7 @@
       </c>
       <c r="K460" s="1"/>
     </row>
-    <row r="461" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="32" t="s">
         <v>261</v>
       </c>
@@ -16640,7 +16639,7 @@
       </c>
       <c r="K461" s="1"/>
     </row>
-    <row r="462" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="32" t="s">
         <v>261</v>
       </c>
@@ -16673,7 +16672,7 @@
       </c>
       <c r="K462" s="1"/>
     </row>
-    <row r="463" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="32" t="s">
         <v>261</v>
       </c>
@@ -16704,7 +16703,7 @@
       </c>
       <c r="K463" s="1"/>
     </row>
-    <row r="464" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="32" t="s">
         <v>261</v>
       </c>
@@ -16735,7 +16734,7 @@
       </c>
       <c r="K464" s="1"/>
     </row>
-    <row r="465" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="32" t="s">
         <v>261</v>
       </c>
@@ -16766,7 +16765,7 @@
       </c>
       <c r="K465" s="1"/>
     </row>
-    <row r="466" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="32" t="s">
         <v>261</v>
       </c>
@@ -16797,7 +16796,7 @@
       </c>
       <c r="K466" s="1"/>
     </row>
-    <row r="467" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="32" t="s">
         <v>261</v>
       </c>
@@ -16828,7 +16827,7 @@
       </c>
       <c r="K467" s="1"/>
     </row>
-    <row r="468" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="32" t="s">
         <v>261</v>
       </c>
@@ -16859,7 +16858,7 @@
       </c>
       <c r="K468" s="1"/>
     </row>
-    <row r="469" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="32" t="s">
         <v>261</v>
       </c>
@@ -16888,7 +16887,7 @@
       <c r="J469" s="73"/>
       <c r="K469" s="1"/>
     </row>
-    <row r="470" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="32" t="s">
         <v>261</v>
       </c>
@@ -16921,7 +16920,7 @@
       </c>
       <c r="K470" s="1"/>
     </row>
-    <row r="471" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="32" t="s">
         <v>261</v>
       </c>
@@ -16954,7 +16953,7 @@
       </c>
       <c r="K471" s="1"/>
     </row>
-    <row r="472" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="32" t="s">
         <v>261</v>
       </c>
@@ -16985,7 +16984,7 @@
       </c>
       <c r="K472" s="1"/>
     </row>
-    <row r="473" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="32" t="s">
         <v>261</v>
       </c>
@@ -17016,7 +17015,7 @@
       </c>
       <c r="K473" s="1"/>
     </row>
-    <row r="474" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="32" t="s">
         <v>261</v>
       </c>
@@ -17049,7 +17048,7 @@
       </c>
       <c r="K474" s="1"/>
     </row>
-    <row r="475" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="32" t="s">
         <v>261</v>
       </c>
@@ -17080,7 +17079,7 @@
       </c>
       <c r="K475" s="1"/>
     </row>
-    <row r="476" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="32" t="s">
         <v>261</v>
       </c>
@@ -17111,7 +17110,7 @@
       </c>
       <c r="K476" s="1"/>
     </row>
-    <row r="477" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="32" t="s">
         <v>261</v>
       </c>
@@ -17142,7 +17141,7 @@
       </c>
       <c r="K477" s="1"/>
     </row>
-    <row r="478" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="32" t="s">
         <v>266</v>
       </c>
@@ -17171,7 +17170,7 @@
       <c r="J478" s="73"/>
       <c r="K478" s="1"/>
     </row>
-    <row r="479" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="32" t="s">
         <v>266</v>
       </c>
@@ -17204,7 +17203,7 @@
       </c>
       <c r="K479" s="1"/>
     </row>
-    <row r="480" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="32" t="s">
         <v>266</v>
       </c>
@@ -17237,7 +17236,7 @@
       </c>
       <c r="K480" s="1"/>
     </row>
-    <row r="481" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="32" t="s">
         <v>266</v>
       </c>
@@ -17270,7 +17269,7 @@
       </c>
       <c r="K481" s="1"/>
     </row>
-    <row r="482" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="32" t="s">
         <v>266</v>
       </c>
@@ -17303,7 +17302,7 @@
       </c>
       <c r="K482" s="1"/>
     </row>
-    <row r="483" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="32" t="s">
         <v>266</v>
       </c>
@@ -17336,7 +17335,7 @@
       </c>
       <c r="K483" s="1"/>
     </row>
-    <row r="484" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="32" t="s">
         <v>266</v>
       </c>
@@ -17369,7 +17368,7 @@
       </c>
       <c r="K484" s="1"/>
     </row>
-    <row r="485" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="32" t="s">
         <v>266</v>
       </c>
@@ -17402,7 +17401,7 @@
       </c>
       <c r="K485" s="1"/>
     </row>
-    <row r="486" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="32" t="s">
         <v>266</v>
       </c>
@@ -17433,7 +17432,7 @@
       </c>
       <c r="K486" s="1"/>
     </row>
-    <row r="487" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="32" t="s">
         <v>266</v>
       </c>
@@ -17464,7 +17463,7 @@
       </c>
       <c r="K487" s="1"/>
     </row>
-    <row r="488" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="32" t="s">
         <v>266</v>
       </c>
@@ -17495,7 +17494,7 @@
       </c>
       <c r="K488" s="1"/>
     </row>
-    <row r="489" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="32" t="s">
         <v>266</v>
       </c>
@@ -17526,7 +17525,7 @@
       </c>
       <c r="K489" s="1"/>
     </row>
-    <row r="490" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="32" t="s">
         <v>266</v>
       </c>
@@ -17559,7 +17558,7 @@
       </c>
       <c r="K490" s="1"/>
     </row>
-    <row r="491" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="32" t="s">
         <v>266</v>
       </c>
@@ -17590,7 +17589,7 @@
       </c>
       <c r="K491" s="1"/>
     </row>
-    <row r="492" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="32" t="s">
         <v>266</v>
       </c>
@@ -17621,7 +17620,7 @@
       </c>
       <c r="K492" s="1"/>
     </row>
-    <row r="493" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="32" t="s">
         <v>266</v>
       </c>
@@ -17652,7 +17651,7 @@
       </c>
       <c r="K493" s="1"/>
     </row>
-    <row r="494" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="32" t="s">
         <v>266</v>
       </c>
@@ -17685,7 +17684,7 @@
       </c>
       <c r="K494" s="1"/>
     </row>
-    <row r="495" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="32" t="s">
         <v>266</v>
       </c>
@@ -17716,7 +17715,7 @@
       </c>
       <c r="K495" s="1"/>
     </row>
-    <row r="496" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="32" t="s">
         <v>266</v>
       </c>
@@ -17749,7 +17748,7 @@
       </c>
       <c r="K496" s="1"/>
     </row>
-    <row r="497" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="32" t="s">
         <v>266</v>
       </c>
@@ -17780,7 +17779,7 @@
       </c>
       <c r="K497" s="1"/>
     </row>
-    <row r="498" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="32" t="s">
         <v>266</v>
       </c>
@@ -17811,7 +17810,7 @@
       </c>
       <c r="K498" s="1"/>
     </row>
-    <row r="499" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="32" t="s">
         <v>266</v>
       </c>
@@ -17842,7 +17841,7 @@
       </c>
       <c r="K499" s="1"/>
     </row>
-    <row r="500" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="32" t="s">
         <v>266</v>
       </c>
@@ -17873,7 +17872,7 @@
       </c>
       <c r="K500" s="1"/>
     </row>
-    <row r="501" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="32" t="s">
         <v>266</v>
       </c>
@@ -17904,7 +17903,7 @@
       </c>
       <c r="K501" s="1"/>
     </row>
-    <row r="502" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="32" t="s">
         <v>266</v>
       </c>
@@ -17935,7 +17934,7 @@
       </c>
       <c r="K502" s="1"/>
     </row>
-    <row r="503" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="32" t="s">
         <v>266</v>
       </c>
@@ -17964,7 +17963,7 @@
       <c r="J503" s="73"/>
       <c r="K503" s="1"/>
     </row>
-    <row r="504" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="32" t="s">
         <v>266</v>
       </c>
@@ -17997,7 +17996,7 @@
       </c>
       <c r="K504" s="1"/>
     </row>
-    <row r="505" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="32" t="s">
         <v>266</v>
       </c>
@@ -18030,7 +18029,7 @@
       </c>
       <c r="K505" s="1"/>
     </row>
-    <row r="506" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="32" t="s">
         <v>266</v>
       </c>
@@ -18061,7 +18060,7 @@
       </c>
       <c r="K506" s="1"/>
     </row>
-    <row r="507" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="32" t="s">
         <v>266</v>
       </c>
@@ -18092,7 +18091,7 @@
       </c>
       <c r="K507" s="1"/>
     </row>
-    <row r="508" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="32" t="s">
         <v>266</v>
       </c>
@@ -18125,7 +18124,7 @@
       </c>
       <c r="K508" s="1"/>
     </row>
-    <row r="509" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="32" t="s">
         <v>266</v>
       </c>
@@ -18156,7 +18155,7 @@
       </c>
       <c r="K509" s="1"/>
     </row>
-    <row r="510" spans="1:11" ht="37.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="32" t="s">
         <v>266</v>
       </c>
@@ -18187,7 +18186,7 @@
       </c>
       <c r="K510" s="1"/>
     </row>
-    <row r="511" spans="1:11" ht="35.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="32" t="s">
         <v>266</v>
       </c>
@@ -18218,7 +18217,7 @@
       </c>
       <c r="K511" s="1"/>
     </row>
-    <row r="512" spans="1:11" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="32" t="s">
         <v>325</v>
       </c>
@@ -18248,7 +18247,7 @@
       </c>
       <c r="J512" s="75"/>
     </row>
-    <row r="513" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="32" t="s">
         <v>325</v>
       </c>
@@ -18278,7 +18277,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="514" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="32" t="s">
         <v>325</v>
       </c>
@@ -18310,7 +18309,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="515" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="32" t="s">
         <v>325</v>
       </c>
@@ -18342,7 +18341,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="516" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="32" t="s">
         <v>325</v>
       </c>
@@ -18372,7 +18371,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="517" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="32" t="s">
         <v>325</v>
       </c>
@@ -18402,7 +18401,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="518" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="32" t="s">
         <v>325</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="519" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="32" t="s">
         <v>325</v>
       </c>
@@ -18462,7 +18461,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="520" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="32" t="s">
         <v>325</v>
       </c>
@@ -18492,7 +18491,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="521" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="32" t="s">
         <v>325</v>
       </c>
@@ -18522,7 +18521,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="522" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="32" t="s">
         <v>325</v>
       </c>
@@ -18552,7 +18551,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="523" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="32" t="s">
         <v>325</v>
       </c>
@@ -18582,7 +18581,7 @@
       </c>
       <c r="J523" s="75"/>
     </row>
-    <row r="524" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="32" t="s">
         <v>325</v>
       </c>
@@ -18612,7 +18611,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="525" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="32" t="s">
         <v>325</v>
       </c>
@@ -18644,7 +18643,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="526" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="32" t="s">
         <v>325</v>
       </c>
@@ -18676,7 +18675,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="527" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="32" t="s">
         <v>325</v>
       </c>
@@ -18706,7 +18705,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="528" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="32" t="s">
         <v>325</v>
       </c>
@@ -18736,7 +18735,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="529" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="32" t="s">
         <v>325</v>
       </c>
@@ -18766,7 +18765,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="530" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="32" t="s">
         <v>325</v>
       </c>
@@ -18796,7 +18795,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="531" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="32" t="s">
         <v>325</v>
       </c>
@@ -18826,7 +18825,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="532" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="32" t="s">
         <v>325</v>
       </c>
@@ -18856,7 +18855,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="533" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="32" t="s">
         <v>325</v>
       </c>
@@ -18886,7 +18885,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="32" t="s">
         <v>325</v>
       </c>
@@ -18914,7 +18913,7 @@
       </c>
       <c r="J534" s="75"/>
     </row>
-    <row r="535" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="32" t="s">
         <v>325</v>
       </c>
@@ -18946,7 +18945,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="536" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="32" t="s">
         <v>325</v>
       </c>
@@ -18976,7 +18975,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="537" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="32" t="s">
         <v>325</v>
       </c>
@@ -19008,7 +19007,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="538" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="32" t="s">
         <v>325</v>
       </c>
@@ -19040,7 +19039,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="539" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="32" t="s">
         <v>325</v>
       </c>
@@ -19072,7 +19071,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="540" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="32" t="s">
         <v>325</v>
       </c>
@@ -19104,7 +19103,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="541" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="32" t="s">
         <v>325</v>
       </c>
@@ -19136,7 +19135,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="542" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="32" t="s">
         <v>325</v>
       </c>
@@ -19168,7 +19167,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="543" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="32" t="s">
         <v>325</v>
       </c>
@@ -19200,7 +19199,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="544" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="32" t="s">
         <v>325</v>
       </c>
@@ -19230,7 +19229,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="545" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="32" t="s">
         <v>325</v>
       </c>
@@ -19260,7 +19259,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="546" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="32" t="s">
         <v>325</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="547" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="32" t="s">
         <v>325</v>
       </c>
@@ -19320,7 +19319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="548" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="32" t="s">
         <v>325</v>
       </c>
@@ -19350,7 +19349,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="549" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="32" t="s">
         <v>325</v>
       </c>
@@ -19378,7 +19377,7 @@
       </c>
       <c r="J549" s="75"/>
     </row>
-    <row r="550" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="32" t="s">
         <v>325</v>
       </c>
@@ -19408,7 +19407,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="551" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="32" t="s">
         <v>325</v>
       </c>
@@ -19438,7 +19437,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="552" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="32" t="s">
         <v>325</v>
       </c>
@@ -19468,7 +19467,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="553" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="32" t="s">
         <v>325</v>
       </c>
@@ -19496,7 +19495,7 @@
       </c>
       <c r="J553" s="75"/>
     </row>
-    <row r="554" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="32" t="s">
         <v>325</v>
       </c>
@@ -19528,7 +19527,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="555" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="32" t="s">
         <v>325</v>
       </c>
@@ -19558,7 +19557,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="556" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="32" t="s">
         <v>325</v>
       </c>
@@ -19590,7 +19589,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="557" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="32" t="s">
         <v>325</v>
       </c>
@@ -19622,7 +19621,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="558" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="32" t="s">
         <v>325</v>
       </c>
@@ -19654,7 +19653,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="559" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="32" t="s">
         <v>325</v>
       </c>
@@ -19686,7 +19685,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="560" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="32" t="s">
         <v>325</v>
       </c>
@@ -19718,7 +19717,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="561" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="32" t="s">
         <v>325</v>
       </c>
@@ -19750,7 +19749,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="562" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="32" t="s">
         <v>325</v>
       </c>
@@ -19782,7 +19781,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="563" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="32" t="s">
         <v>325</v>
       </c>
@@ -19812,7 +19811,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="564" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="32" t="s">
         <v>325</v>
       </c>
@@ -19842,7 +19841,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="565" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="32" t="s">
         <v>325</v>
       </c>
@@ -19872,7 +19871,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="566" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="32" t="s">
         <v>325</v>
       </c>
@@ -19902,7 +19901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="567" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="32" t="s">
         <v>325</v>
       </c>
@@ -19932,7 +19931,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="568" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="32" t="s">
         <v>325</v>
       </c>
@@ -19960,7 +19959,7 @@
       </c>
       <c r="J568" s="75"/>
     </row>
-    <row r="569" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="32" t="s">
         <v>325</v>
       </c>
@@ -19990,7 +19989,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="570" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="32" t="s">
         <v>325</v>
       </c>
@@ -20020,7 +20019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="571" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="32" t="s">
         <v>325</v>
       </c>
@@ -20050,7 +20049,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="572" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="32" t="s">
         <v>325</v>
       </c>
@@ -20078,7 +20077,7 @@
       </c>
       <c r="J572" s="75"/>
     </row>
-    <row r="573" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="32" t="s">
         <v>325</v>
       </c>
@@ -20110,7 +20109,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="574" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="32" t="s">
         <v>325</v>
       </c>
@@ -20140,7 +20139,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="575" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="32" t="s">
         <v>325</v>
       </c>
@@ -20172,7 +20171,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="576" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="32" t="s">
         <v>325</v>
       </c>
@@ -20204,7 +20203,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="577" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="32" t="s">
         <v>325</v>
       </c>
@@ -20236,7 +20235,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="578" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="32" t="s">
         <v>325</v>
       </c>
@@ -20268,7 +20267,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="579" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="32" t="s">
         <v>325</v>
       </c>
@@ -20300,7 +20299,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="580" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="32" t="s">
         <v>325</v>
       </c>
@@ -20332,7 +20331,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="581" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="32" t="s">
         <v>325</v>
       </c>
@@ -20364,7 +20363,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="582" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="32" t="s">
         <v>325</v>
       </c>
@@ -20394,7 +20393,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="583" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="32" t="s">
         <v>325</v>
       </c>
@@ -20424,7 +20423,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="584" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="32" t="s">
         <v>325</v>
       </c>
@@ -20454,7 +20453,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="585" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="32" t="s">
         <v>325</v>
       </c>
@@ -20484,7 +20483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="586" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="32" t="s">
         <v>325</v>
       </c>
@@ -20514,7 +20513,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="587" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="32" t="s">
         <v>325</v>
       </c>
@@ -20542,7 +20541,7 @@
       </c>
       <c r="J587" s="75"/>
     </row>
-    <row r="588" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="32" t="s">
         <v>325</v>
       </c>
@@ -20572,7 +20571,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="589" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="32" t="s">
         <v>325</v>
       </c>
@@ -20602,7 +20601,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="590" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="32" t="s">
         <v>325</v>
       </c>
@@ -20632,7 +20631,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="591" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="32" t="s">
         <v>325</v>
       </c>
@@ -20660,7 +20659,7 @@
       </c>
       <c r="J591" s="75"/>
     </row>
-    <row r="592" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="32" t="s">
         <v>325</v>
       </c>
@@ -20690,7 +20689,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="593" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="32" t="s">
         <v>325</v>
       </c>
@@ -20720,7 +20719,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="594" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="32" t="s">
         <v>325</v>
       </c>
@@ -20750,7 +20749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="595" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="32" t="s">
         <v>325</v>
       </c>
@@ -20778,7 +20777,7 @@
       </c>
       <c r="J595" s="75"/>
     </row>
-    <row r="596" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="32" t="s">
         <v>325</v>
       </c>
@@ -20810,7 +20809,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="597" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="32" t="s">
         <v>325</v>
       </c>
@@ -20840,7 +20839,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="598" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="32" t="s">
         <v>325</v>
       </c>
@@ -20872,7 +20871,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="599" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="32" t="s">
         <v>325</v>
       </c>
@@ -20902,7 +20901,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="600" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="32" t="s">
         <v>325</v>
       </c>
@@ -20932,7 +20931,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="601" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="32" t="s">
         <v>325</v>
       </c>
@@ -20962,7 +20961,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="602" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="32" t="s">
         <v>325</v>
       </c>
@@ -20990,7 +20989,7 @@
       </c>
       <c r="J602" s="75"/>
     </row>
-    <row r="603" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="32" t="s">
         <v>325</v>
       </c>
@@ -21020,7 +21019,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="604" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="32" t="s">
         <v>325</v>
       </c>
@@ -21050,7 +21049,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="605" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="32" t="s">
         <v>325</v>
       </c>
@@ -21080,7 +21079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="606" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="32" t="s">
         <v>325</v>
       </c>
@@ -21108,7 +21107,7 @@
       </c>
       <c r="J606" s="75"/>
     </row>
-    <row r="607" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="32" t="s">
         <v>325</v>
       </c>
@@ -21140,7 +21139,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="608" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="32" t="s">
         <v>325</v>
       </c>
@@ -21170,7 +21169,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="609" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="32" t="s">
         <v>325</v>
       </c>
@@ -21202,7 +21201,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="610" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="32" t="s">
         <v>325</v>
       </c>
@@ -21232,7 +21231,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="611" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="32" t="s">
         <v>325</v>
       </c>
@@ -21262,7 +21261,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="612" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="32" t="s">
         <v>325</v>
       </c>
@@ -21292,7 +21291,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="613" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="32" t="s">
         <v>325</v>
       </c>
@@ -21320,7 +21319,7 @@
       </c>
       <c r="J613" s="75"/>
     </row>
-    <row r="614" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="32" t="s">
         <v>325</v>
       </c>
@@ -21350,7 +21349,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="615" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="32" t="s">
         <v>325</v>
       </c>
@@ -21380,7 +21379,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="616" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="32" t="s">
         <v>325</v>
       </c>
@@ -21410,7 +21409,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="617" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="32" t="s">
         <v>325</v>
       </c>
@@ -21438,7 +21437,7 @@
       </c>
       <c r="J617" s="75"/>
     </row>
-    <row r="618" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="32" t="s">
         <v>325</v>
       </c>
@@ -21468,7 +21467,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="619" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="32" t="s">
         <v>325</v>
       </c>
@@ -21498,7 +21497,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="620" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="32" t="s">
         <v>325</v>
       </c>
@@ -21528,7 +21527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="32" t="s">
         <v>325</v>
       </c>
@@ -21558,7 +21557,7 @@
       </c>
       <c r="J621" s="75"/>
     </row>
-    <row r="622" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="32" t="s">
         <v>325</v>
       </c>
@@ -21590,7 +21589,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="623" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="32" t="s">
         <v>325</v>
       </c>
@@ -21620,7 +21619,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="624" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="32" t="s">
         <v>325</v>
       </c>
@@ -21652,7 +21651,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="625" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="32" t="s">
         <v>325</v>
       </c>
@@ -21682,7 +21681,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="626" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="32" t="s">
         <v>325</v>
       </c>
@@ -21712,7 +21711,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="627" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="32" t="s">
         <v>325</v>
       </c>
@@ -25270,7 +25269,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="744" spans="1:10" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="32" t="s">
         <v>327</v>
       </c>
@@ -25300,7 +25299,7 @@
       </c>
       <c r="J744" s="75"/>
     </row>
-    <row r="745" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="32" t="s">
         <v>327</v>
       </c>
@@ -25330,7 +25329,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="746" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="32" t="s">
         <v>327</v>
       </c>
@@ -25362,7 +25361,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="747" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="32" t="s">
         <v>327</v>
       </c>
@@ -25394,7 +25393,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="748" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="32" t="s">
         <v>327</v>
       </c>
@@ -25424,7 +25423,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="749" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="32" t="s">
         <v>327</v>
       </c>
@@ -25454,7 +25453,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="750" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="32" t="s">
         <v>327</v>
       </c>
@@ -25484,7 +25483,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="751" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="32" t="s">
         <v>327</v>
       </c>
@@ -25514,7 +25513,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="752" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="32" t="s">
         <v>327</v>
       </c>
@@ -25544,7 +25543,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="753" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="32" t="s">
         <v>327</v>
       </c>
@@ -25574,7 +25573,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="754" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="32" t="s">
         <v>327</v>
       </c>
@@ -25604,7 +25603,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="755" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="32" t="s">
         <v>327</v>
       </c>
@@ -25634,7 +25633,7 @@
       </c>
       <c r="J755" s="75"/>
     </row>
-    <row r="756" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="32" t="s">
         <v>327</v>
       </c>
@@ -25664,7 +25663,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="757" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="32" t="s">
         <v>327</v>
       </c>
@@ -25696,7 +25695,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="758" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="32" t="s">
         <v>327</v>
       </c>
@@ -25728,7 +25727,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="759" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="32" t="s">
         <v>327</v>
       </c>
@@ -25758,7 +25757,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="760" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="32" t="s">
         <v>327</v>
       </c>
@@ -25788,7 +25787,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="761" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="32" t="s">
         <v>327</v>
       </c>
@@ -25818,7 +25817,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="762" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="32" t="s">
         <v>327</v>
       </c>
@@ -25848,7 +25847,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="763" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="32" t="s">
         <v>327</v>
       </c>
@@ -25878,7 +25877,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="764" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="32" t="s">
         <v>327</v>
       </c>
@@ -25908,7 +25907,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="765" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="32" t="s">
         <v>327</v>
       </c>
@@ -25938,7 +25937,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="766" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="32" t="s">
         <v>327</v>
       </c>
@@ -25966,7 +25965,7 @@
       </c>
       <c r="J766" s="75"/>
     </row>
-    <row r="767" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="32" t="s">
         <v>327</v>
       </c>
@@ -25998,7 +25997,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="768" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="32" t="s">
         <v>327</v>
       </c>
@@ -26028,7 +26027,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="769" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="32" t="s">
         <v>327</v>
       </c>
@@ -26060,7 +26059,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="770" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="32" t="s">
         <v>327</v>
       </c>
@@ -26092,7 +26091,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="771" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="32" t="s">
         <v>327</v>
       </c>
@@ -26124,7 +26123,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="772" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="32" t="s">
         <v>327</v>
       </c>
@@ -26156,7 +26155,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="773" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="32" t="s">
         <v>327</v>
       </c>
@@ -26188,7 +26187,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="774" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="32" t="s">
         <v>327</v>
       </c>
@@ -26220,7 +26219,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="775" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="32" t="s">
         <v>327</v>
       </c>
@@ -26252,7 +26251,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="776" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="32" t="s">
         <v>327</v>
       </c>
@@ -26282,7 +26281,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="777" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="32" t="s">
         <v>327</v>
       </c>
@@ -26312,7 +26311,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="778" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="32" t="s">
         <v>327</v>
       </c>
@@ -26342,7 +26341,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="779" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="32" t="s">
         <v>327</v>
       </c>
@@ -26372,7 +26371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="780" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="32" t="s">
         <v>327</v>
       </c>
@@ -26402,7 +26401,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="781" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="32" t="s">
         <v>327</v>
       </c>
@@ -26430,7 +26429,7 @@
       </c>
       <c r="J781" s="75"/>
     </row>
-    <row r="782" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="32" t="s">
         <v>327</v>
       </c>
@@ -26460,7 +26459,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="783" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="32" t="s">
         <v>327</v>
       </c>
@@ -26490,7 +26489,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="784" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="32" t="s">
         <v>327</v>
       </c>
@@ -26520,7 +26519,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="785" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="32" t="s">
         <v>327</v>
       </c>
@@ -26548,7 +26547,7 @@
       </c>
       <c r="J785" s="75"/>
     </row>
-    <row r="786" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="32" t="s">
         <v>327</v>
       </c>
@@ -26580,7 +26579,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="787" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="32" t="s">
         <v>327</v>
       </c>
@@ -26610,7 +26609,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="788" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="32" t="s">
         <v>327</v>
       </c>
@@ -26642,7 +26641,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="789" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="32" t="s">
         <v>327</v>
       </c>
@@ -26674,7 +26673,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="790" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="32" t="s">
         <v>327</v>
       </c>
@@ -26706,7 +26705,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="791" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="32" t="s">
         <v>327</v>
       </c>
@@ -26738,7 +26737,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="792" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="32" t="s">
         <v>327</v>
       </c>
@@ -26770,7 +26769,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="793" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="32" t="s">
         <v>327</v>
       </c>
@@ -26802,7 +26801,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="794" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="32" t="s">
         <v>327</v>
       </c>
@@ -26834,7 +26833,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="795" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="32" t="s">
         <v>327</v>
       </c>
@@ -26864,7 +26863,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="796" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="32" t="s">
         <v>327</v>
       </c>
@@ -26894,7 +26893,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="797" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="32" t="s">
         <v>327</v>
       </c>
@@ -26924,7 +26923,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="798" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="32" t="s">
         <v>327</v>
       </c>
@@ -26954,7 +26953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="799" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="32" t="s">
         <v>327</v>
       </c>
@@ -26984,7 +26983,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="800" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="32" t="s">
         <v>327</v>
       </c>
@@ -27012,7 +27011,7 @@
       </c>
       <c r="J800" s="75"/>
     </row>
-    <row r="801" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="32" t="s">
         <v>327</v>
       </c>
@@ -27042,7 +27041,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="802" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="32" t="s">
         <v>327</v>
       </c>
@@ -27072,7 +27071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="803" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="32" t="s">
         <v>327</v>
       </c>
@@ -27102,7 +27101,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="804" spans="1:10" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="32" t="s">
         <v>327</v>
       </c>
@@ -27130,7 +27129,7 @@
       </c>
       <c r="J804" s="75"/>
     </row>
-    <row r="805" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="32" t="s">
         <v>327</v>
       </c>
@@ -27162,7 +27161,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="806" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="32" t="s">
         <v>327</v>
       </c>
@@ -27192,7 +27191,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="807" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="32" t="s">
         <v>327</v>
       </c>
@@ -27224,7 +27223,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="808" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="32" t="s">
         <v>327</v>
       </c>
@@ -27256,7 +27255,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="809" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="32" t="s">
         <v>327</v>
       </c>
@@ -27288,7 +27287,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="810" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="32" t="s">
         <v>327</v>
       </c>
@@ -27320,7 +27319,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="811" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="32" t="s">
         <v>327</v>
       </c>
@@ -27352,7 +27351,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="812" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="32" t="s">
         <v>327</v>
       </c>
@@ -27384,7 +27383,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="813" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="32" t="s">
         <v>327</v>
       </c>
@@ -27416,7 +27415,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="814" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="32" t="s">
         <v>327</v>
       </c>
@@ -27446,7 +27445,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="815" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="32" t="s">
         <v>327</v>
       </c>
@@ -27476,7 +27475,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="816" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="32" t="s">
         <v>327</v>
       </c>
@@ -27506,7 +27505,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="817" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="32" t="s">
         <v>327</v>
       </c>
@@ -27536,7 +27535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="818" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="32" t="s">
         <v>327</v>
       </c>
@@ -27566,7 +27565,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="819" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="32" t="s">
         <v>327</v>
       </c>
@@ -27594,7 +27593,7 @@
       </c>
       <c r="J819" s="75"/>
     </row>
-    <row r="820" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="32" t="s">
         <v>327</v>
       </c>
@@ -27624,7 +27623,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="821" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="32" t="s">
         <v>327</v>
       </c>
@@ -27654,7 +27653,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="822" spans="1:10" ht="39.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="32" t="s">
         <v>327</v>
       </c>
@@ -27684,7 +27683,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="823" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="32" t="s">
         <v>327</v>
       </c>
@@ -27712,7 +27711,7 @@
       </c>
       <c r="J823" s="75"/>
     </row>
-    <row r="824" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="32" t="s">
         <v>327</v>
       </c>
@@ -27742,7 +27741,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="825" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="32" t="s">
         <v>327</v>
       </c>
@@ -27772,7 +27771,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="826" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="32" t="s">
         <v>327</v>
       </c>
@@ -27802,7 +27801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="827" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="32" t="s">
         <v>327</v>
       </c>
@@ -27830,7 +27829,7 @@
       </c>
       <c r="J827" s="75"/>
     </row>
-    <row r="828" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="32" t="s">
         <v>327</v>
       </c>
@@ -27862,7 +27861,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="829" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="32" t="s">
         <v>327</v>
       </c>
@@ -27892,7 +27891,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="830" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="32" t="s">
         <v>327</v>
       </c>
@@ -27924,7 +27923,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="831" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="32" t="s">
         <v>327</v>
       </c>
@@ -27954,7 +27953,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="832" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="32" t="s">
         <v>327</v>
       </c>
@@ -27984,7 +27983,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="833" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="32" t="s">
         <v>327</v>
       </c>
@@ -28014,7 +28013,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="834" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="32" t="s">
         <v>327</v>
       </c>
@@ -28042,7 +28041,7 @@
       </c>
       <c r="J834" s="75"/>
     </row>
-    <row r="835" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="32" t="s">
         <v>327</v>
       </c>
@@ -28072,7 +28071,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="836" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="32" t="s">
         <v>327</v>
       </c>
@@ -28102,7 +28101,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="837" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="32" t="s">
         <v>327</v>
       </c>
@@ -28132,7 +28131,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="838" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="32" t="s">
         <v>327</v>
       </c>
@@ -28160,7 +28159,7 @@
       </c>
       <c r="J838" s="75"/>
     </row>
-    <row r="839" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="32" t="s">
         <v>327</v>
       </c>
@@ -28192,7 +28191,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="840" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="32" t="s">
         <v>327</v>
       </c>
@@ -28222,7 +28221,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="841" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="32" t="s">
         <v>327</v>
       </c>
@@ -28254,7 +28253,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="842" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="32" t="s">
         <v>327</v>
       </c>
@@ -28284,7 +28283,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="843" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="32" t="s">
         <v>327</v>
       </c>
@@ -28314,7 +28313,7 @@
         <v>1000000000</v>
       </c>
     </row>
-    <row r="844" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="32" t="s">
         <v>327</v>
       </c>
@@ -28344,7 +28343,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="845" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="32" t="s">
         <v>327</v>
       </c>
@@ -28372,7 +28371,7 @@
       </c>
       <c r="J845" s="75"/>
     </row>
-    <row r="846" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="32" t="s">
         <v>327</v>
       </c>
@@ -28402,7 +28401,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="847" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="32" t="s">
         <v>327</v>
       </c>
@@ -28432,7 +28431,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="848" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="32" t="s">
         <v>327</v>
       </c>
@@ -28462,7 +28461,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="849" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="32" t="s">
         <v>327</v>
       </c>
@@ -28490,7 +28489,7 @@
       </c>
       <c r="J849" s="75"/>
     </row>
-    <row r="850" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="32" t="s">
         <v>327</v>
       </c>
@@ -28520,7 +28519,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="851" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="32" t="s">
         <v>327</v>
       </c>
@@ -28550,7 +28549,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="852" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="32" t="s">
         <v>327</v>
       </c>
@@ -28580,7 +28579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="32" t="s">
         <v>327</v>
       </c>
@@ -28610,7 +28609,7 @@
       </c>
       <c r="J853" s="75"/>
     </row>
-    <row r="854" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="32" t="s">
         <v>327</v>
       </c>
@@ -28642,7 +28641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="855" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="32" t="s">
         <v>327</v>
       </c>
@@ -28672,7 +28671,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="856" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="32" t="s">
         <v>327</v>
       </c>
@@ -28704,7 +28703,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="857" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="32" t="s">
         <v>327</v>
       </c>
@@ -28734,7 +28733,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="858" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="32" t="s">
         <v>327</v>
       </c>
@@ -28764,7 +28763,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="859" spans="1:10" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="32" t="s">
         <v>327</v>
       </c>
@@ -28797,13 +28796,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J859" xr:uid="{241B3BD8-F515-4CBF-8C03-917A1F325C81}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="OCPS6S10"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J859" xr:uid="{241B3BD8-F515-4CBF-8C03-917A1F325C81}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -28813,7 +28806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A449F760-36D3-49B1-A526-0D7D897A459D}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -29547,7 +29540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3120C94B-7C85-449C-9AF5-DA57B74CB555}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+    <sheetView zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
